--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841810_sqrt.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841810_sqrt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7812" windowHeight="10788" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15192" windowHeight="6204" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -101,400 +101,400 @@
     <t>_1236_12</t>
   </si>
   <si>
-    <t>[ 0 24  2  1 27  9 23  8 18  3 16  6 26  7  5 19 20 15 10 17 11 22 13  4
+    <t>[ 0 24  2  1 27  9 23  8 16  7 18  6  3 17 15 26 20 19 11  5 10 22 13  4
+ 14 21 12 25]</t>
+  </si>
+  <si>
+    <t>[ 0 30  2 24  1 52 28 51 29 27 55  9  3  8 45  6  7 11 23 46 16 43  5 47
+ 37 10 34 33 17 18 48 26 40 44 31 22  4 50 15 32 36 42 54 20 19 38 35 39
+ 49 21 13 41 14 12 53 25]</t>
+  </si>
+  <si>
+    <t>[ 0  2 30  1 24 79 52 28 51 73 80 29  9  8  3 27 55 57 83 43  5 58  6 69
+ 63 16 23 61 37 10 65  7 11 64 62 75 34 59 33 67 18 26 46 47 78 72 31 45
+ 74 66 40 76 17 60 48  4 32 20 50 15 19 56 44 36 22 71 21 39 54 77 38 12
+ 42 82 70 13 35 14 68 41 25 81 49 53]</t>
+  </si>
+  <si>
+    <t>[24  2 23  0 27  1 15 18 17 19 16  5 22  9 21 20  6 12  4  7 26 14 13  3
+ 11  8 10 25]</t>
+  </si>
+  <si>
+    <t>[ 2 51 24  0  1 23 52 15 45 55 27 29 30 35 43 47 39 37  5 33 41 16 18 36
+ 19 46 12 22 34 50  9 44 17  7 31  6 11 32  3  4 42 21 13 20 48 28 26 38
+ 14  8 54 49 10 25 40 53]</t>
+  </si>
+  <si>
+    <t>[ 2 24 51 79  0 58  1 80 23 52 83 27 15 64 30 67 45 55 29 35 63 69 77 33
+ 62 18 65 37 47 56  5 12 66 16 36 60 73 41 43 50 61  9  6  4 31 82 22 39
+ 17 21  7  3 34 19 59 13 38  8 70 72 46 75 32 78 26 71 28 44 14 74 20 48
+ 42 10 25 68 54 49 40 57 76 11 81 53]</t>
+  </si>
+  <si>
+    <t>[23 24 17  2 15 27 19  7  1 13  9 16  5 18 22 26  3 20 10  4 11  8  6  0
  14 12 21 25]</t>
   </si>
   <si>
-    <t>[ 0  2 30  1 24 52 28 51 29 55 27  9  7 45  3  6 16  8  5 46 23 11 37 34
- 47 43 33 10 18 40 17 26 48 50 31 15 19 44 20  4 22 54 36 32 21 41 42 39
- 13 14 35 38 49 12 53 25]</t>
-  </si>
-  <si>
-    <t>[ 0  2 30  1 24 79 28 52 29 51 27 73  3  9 55 80  5 69  8 83 58 16  6 67
- 37 61 10  7 11 75 63 62 64 57 43 59 34 17 33 18 65 40 74 76 15 72 46 56
- 71 47 23 78 31 32 60 26 21 66 22 45  4 48 19 36 38 20 50 54 70 44 39 35
- 14 82 41 42 12 13 49 77 68 25 81 53]</t>
-  </si>
-  <si>
-    <t>[24  2 23  0  1 27 15 17 18 19  5 16 22  9 20  6  7 21 12  4 14 26 13 11
-  3  8 10 25]</t>
-  </si>
-  <si>
-    <t>[ 2 51 24  0  1 52 23 45 15 27 30 55 29 35 33 37 41 43  5 47 18 22 12 36
-  6  9 16  4 34 50 46 17 31  7 19 38 39 44 42 21  3 11 13 32 28 26 14  8
- 20 48 49 54 25 40 10 53]</t>
-  </si>
-  <si>
-    <t>[ 2 51  0 24 79  1 80 58 52 23 64 45 55 15 27 83 67 29 30 33 65 35 69 18
- 62 66 56 63 37  5 12 77 41 72 47 73  4 60 36 22  6 43 17 50 70  9 39 19
- 16 31 34  3  7 61 13 28 46 82 59  8 21 44 14 32 38 78 75 42 26 74 20 71
- 57 48 68 54 76 11 40 81 10 25 49 53]</t>
-  </si>
-  <si>
-    <t>[23 24  2 17 15 19  1  7 27 13  5 16 18  9 11 22 26  0 10  3  8  6  4 20
- 14 21 12 25]</t>
-  </si>
-  <si>
-    <t>[23 51 52 24 30 36  2 27  1 17 39 55 15  7 19 41 34 35  9 45  5 49 13 28
- 32 37 44 38 54 22  8 11  3 16 18 42 10  4 20 33  0 47 43 29 31 26  6 14
- 50 12 46 40 48 21 25 53]</t>
-  </si>
-  <si>
-    <t>[23 51 80 30 79 52 24 17  2  1 61 67 36 83 27 58 39  7 63 55 15 77 72 45
- 41 19  9 32  5 13 37 65 35 38 34 56 66 62 70 64 10 54 28 18 75 11 78 68
-  3  8 59 22 16 82 57 33 60  4 49 69 76 20 31 71 43  0  6 26 44 47 29 74
- 42 73 12 14 40 21 81 50 46 48 25 53]</t>
-  </si>
-  <si>
-    <t>[23 24  2  8 17 11 13  7 27  4 15 16 19 10 21  6 26  9  0 14 22  5 18  1
-  3 20 25 12]</t>
-  </si>
-  <si>
-    <t>[23 52 51  2 24 33 17  8 39 27 11 13 55 35 30 49 44  4 28  9 10  6  7 34
- 19 15 26 42 38 37 21 36 16  0 41 32  5 48 50 54 47  3 31 29 46 14 45 22
- 18 43 40  1 20 53 12 25]</t>
-  </si>
-  <si>
-    <t>[23 52 79 51  2 80 24 33 61 17  8 83 70 56 68 39 27 11 13 67 55 75 35 30
-  4 57 72 10  6 74 65  7 49  9 28 37 34 78 66 77 62 69 82 64 63 71  0  5
- 36 26 15 58 38 42 21 41  3 19 48  1 32 59 29 31 40 16 18 47 14 73 22 54
- 81 44 60 50 12 76 20 43 45 53 25 46]</t>
-  </si>
-  <si>
-    <t>[24 23  5 11 27 16  7  2 21 14 17  0  6 15  9 19 13 22  4 26 10  8  1 20
- 12 25  3 18]</t>
-  </si>
-  <si>
-    <t>[24 51 52 23 33  5 55 11 42 28 39 47 40  2  7 37 27 43 17  6 49 46 29  9
- 21 10 50  0 34 54 44 13 41 30 38 15 35  8 14 20 16 19  4 36 12 53 31  3
-  1 18 22 26 45 32 48 25]</t>
-  </si>
-  <si>
-    <t>[79 61 80 24 23 51 52 33 55  5 75 11 74 27 28 40 78 39 56 70 63 42 77  2
- 67  7 37 69 57 66 82 34 17  6 20 47  0 10  4  8 29 35 72 43 58 62  9 71
- 21 19 14 68 13 83 30 49 38 54 50 41 36 65 16 64  1 73 46 12 22  3 31 15
- 59 76 81 44 26 48 32 45 60 53 18 25]</t>
-  </si>
-  <si>
-    <t>[24 23  5 27 14  0 19 12 15  9 11 21 18 22  1  2 16  6 25 26 20  7 10 13
-  3 17  8  4]</t>
-  </si>
-  <si>
-    <t>[51 52 33 23 24  5 47 12 46 27  0 35 38 50  9 29 11 14 28 42 41 39 49 43
- 15 19  1 44 21 54  2 16 55 40  6 10 30  7 22 34 13 20 26 48  8 37 18 36
- 45 17 25  4 32 31 53  3]</t>
-  </si>
-  <si>
-    <t>[33 51 61 80 79 52 23 24 63  5 75 62 12 35 74  0 46 11 28 77 83 29 78 82
- 47 14  9 39 65 58 38 68 50 41  6 67 49 69  2 71 70 19 42 16 21 10 40 13
- 44  1 30 66 34 27 54 15 60  7 37 56 18 20  8 22 55 26 73 76 81 36 43 17
- 72 45  4 48  3 59 25 31 53 64 32 57]</t>
-  </si>
-  <si>
-    <t>[24  1 23  2  7 10 25  4 14 20 27 22 16  6  0 13 12 21  5 26 18 17 19 15
+    <t>[51 23 52 30 24  2 17  1 36 39 15 55 27  7 19  9 41 35 34  5 13 37 54 28
+ 32 49  8 45 22 38 44 18 16  3 42 11 10  4 43  0 20 31 47 33 26  6 29 50
+ 46 12 40 48 14 21 53 25]</t>
+  </si>
+  <si>
+    <t>[23 51 80 30 52 79 24  1 17 61  2 36 27 67 15  7 77 55 58 39 63 56 45 19
+ 41  5  9 13 37 83 32 35 72 70 38 62 34 64  3  8 18 22 28 54 65 16 57 10
+ 66  4 33 69 49 68 75 78 60 31 59 76  0 20 43 44 71 82 26 29  6 12 14 47
+ 42 11 73 21 50 46 74 40 81 48 53 25]</t>
+  </si>
+  <si>
+    <t>[23 24  2 17  8 11 13 27  7 15 16 19 21  4 26  6  0  9 10 14 22  5  1  3
+ 20 18 25 12]</t>
+  </si>
+  <si>
+    <t>[23 52 51  2 24 33  8 17 27 11 55 39 13 30  4 35 49 44 34  6 28 10 42  7
+  9 26 15 47 16 38 29 41 21  0 19 37 36 32 40 48  3  5 31 54 18 50 43 14
+ 20 22 45  1 46 12 53 25]</t>
+  </si>
+  <si>
+    <t>[23 52 79  2 51 80 24 61 33 17 55 70 27 39  8 56 13 83 11 68 67 75 35  4
+  7 10 74 72 28 77 30  6 65 15 57 78  9 37 58 63 71 62 38 41 64 66 34 49
+ 19 26 69 82 48  3  0 21 36  5 29 47 14 59 31 16 73 32  1 54 81 18 20 40
+ 42 50 60 43 44 22 46 76 45 12 53 25]</t>
+  </si>
+  <si>
+    <t>[24 23  5 11  7 21 16 27 14  2 17  0  9 15 19  6 13  4 22 10 26  8 20  3
+ 18 25  1 12]</t>
+  </si>
+  <si>
+    <t>[24 51 52 23 33  5 55 28 27 11 40 47 42  2 39  7 37 43  6 49 34 46 29 14
+ 17 13  0 44 21 50 54 15 16 38  9 35 30 20  8  4 41 10 22 19 26 36 31  3
+ 12  1 53 18 32 45 48 25]</t>
+  </si>
+  <si>
+    <t>[61 79 80 24 51 52 23  5 55 75 33 74 11 77 78 40 63 28 67 66 39 69 56 70
+ 17 42 37  7  2 57 82 21  9 43 71 58  8 72 47  6 14 62 13  4 73 27  0 29
+ 68 64 10 65 20 34 16 49 54 41 36 38 50 15 35 83 19  1 12 30 44 46 31 76
+  3 48 32 53 26 59 81 22 45 60 25 18]</t>
+  </si>
+  <si>
+    <t>[23 24  5 14 27  0 19 12 11 15  1 21  9 22 18 16  2 26 20  6 25 13  7 10
+ 17  8  3  4]</t>
+  </si>
+  <si>
+    <t>[51 33 52 23 24  5 47 27 12 46  0 35 50 28 49 14 39 11 29 42 38 41  9  1
+ 21 54 19 10 43  6 15 22 16 44 30  7 20 18  2 40 13 34 36 37  8 53 48 45
+ 55 17 26 25 31  3  4 32]</t>
+  </si>
+  <si>
+    <t>[33 51 61 79 52 23 80 24  5 63 62 12 75  0 74 46 82 27 47 28 35 11 38 68
+ 14 39 29 78 77 49 58 83 65  1 41  9 71 70 42  2 34 10 69 67 19 13 50 16
+ 40 21 37 44 15  6 30 20 66 54 60 73 55  8 56 36 43  7 81 22 26 18 64 57
+  4 17 45 25  3 76 48 31 59 72 32 53]</t>
+  </si>
+  <si>
+    <t>[ 1 24 23  2  7 27  4 10 25 14 13 20 16 22  0  6 12 18 21 26 17  5 19 15
   9 11  8  3]</t>
   </si>
   <si>
-    <t>[  0  30   2   1  52  24  28  79 107  29  96  89 108   9  73  95  51  27
-  84  55  80 111  58  83 102   8  57  61   3  63  97   5  90  69   6  92
-   7  10  16  23 104  11  98  33 103  93 105  43  34  31  46  37  94 100
-  32  67  65  17 106  85  64  75  59 101  40  91  78  26  18  62  86  36
-  47  45  74  87  76  20  35  71  48  56  21  15  39  41  54  60  66  12
- 110  72  99  82  44  14   4  22  38  13 109  50  19  77  88  25  68  70
-  81  42  49  53]</t>
-  </si>
-  <si>
-    <t>[  0   2  30   1  28  86 107  24  79 136  52 163 108 135 145  95  29 123
- 117 152 167 139 164  55  92  80   9  73  58   8 151  97   3  51 140  27
- 158  94   6 122  61  57  93 119 159 154  90  16   5 153  67 149  63 161
-  69  11  43  40 114 148  88 146  46  64  31  83  17  84 115 133  20  59
-  34  23  65 162 125 132  33 101 150 116 111  48 147  32  71  66  37  47
-   7 105 121  10  18  89 124 160 156  26  36 141  45  39 112  87 130  62
-  74  60  15  91  78  76  99  44  56 102  12 143 120 157 128 110  14  38
-  19 131 142  50 118 138  54  82 144  42  21 129  70  41  75  13 100  72
- 126 155 134   4  22  68  96 166 113 103  49  35 165 104  25  53  85 127
-  98 106 137  77 109  81]</t>
-  </si>
-  <si>
-    <t>[  0 112   2 114 142   1  30  24 113  79 136 140 107 164  95  96 108  89
-  52  73  28 111 163 100  84 102  27  58  29  80  51  23 141  83  90  55
-   9  61 121  92  63 167 103  98  97  65  93  94 135  57  69 105 104   6
-  67  59  85  86   8  62 101  64 115 106  76   3 123 118 120  75 128  78
-  74 117  91 139  16 145 158   7 146 155  56 110  71 130  43  99  66  47
-  10 119   5 143  82 152  45  72  60 127 122 157  34 149  37 160 138  33
-  48  68  87 109  40  31  26  18 144  70  88  11 159  17  77 166  20 131
-  46  22 134  36  32  15  35 156   4  12 129 124  39 148 116  21  13  50
- 162  38  19  54  44 132  41 150  42 126 154  25 125  14  49 133 147 153
-  81 161 137 151  53 165]</t>
-  </si>
-  <si>
-    <t>[5.3606775 1.1915147 1.4989104 0.3078076 0.1437682 0.2546481 0.2876492
- 0.260549  0.3310416 0.4863103 0.2219648 0.2073747 0.1277736 0.1515133
- 0.1352667 0.2348387 0.3048634 0.2152497 0.3132139 0.250685  0.2378319
- 0.1224699 0.1931181 0.4004502 1.7882069 0.1069794 0.2686609 0.5461038]</t>
-  </si>
-  <si>
-    <t>[8.7715958 1.7793529 2.4823311 0.3560894 0.1803356 0.3242779 0.3506151
- 0.3839678 0.3372005 0.4994225 0.2637926 0.2874181 0.1095251 0.1418204
- 0.1404797 0.2032163 0.3483366 0.2435358 0.2518192 0.2013291 0.1920783
- 0.1598666 0.1756112 0.3199073 1.6900445 0.0871436 0.2314928 0.5387394
- 1.006209  0.6059556 2.4767392 0.2135691 0.1631648 0.2654726 0.2734794
- 0.1253226 0.1644282 0.284517  0.1250735 0.1427002 0.2439409 0.1580461
- 0.1503681 0.2705163 0.1973376 0.3725942 0.3201014 0.2721641 0.2234386
- 0.1160048 0.2195834 0.828574  1.5741841 0.0983788 0.1661035 0.553529 ]</t>
-  </si>
-  <si>
-    <t>[12.8428107  2.439363   2.5688234  0.4549436  0.1606974  0.413709
-  0.332453   0.2721926  0.373781   0.4536043  0.2736647  0.272149
-  0.1121885  0.108467   0.1237034  0.2180989  0.3328666  0.2312917
-  0.2286057  0.1515516  0.1449437  0.1789404  0.1742189  0.2072399
-  1.7061942  0.0887566  0.1830952  0.5992749  1.433705   0.7102202
-  2.444561   0.1920728  0.1836721  0.229748   0.2318209  0.1341394
-  0.1475338  0.323447   0.1473313  0.1365502  0.2221965  0.1199368
-  0.1186882  0.2421658  0.1375209  0.1624595  0.2146842  0.2084191
-  0.1591104  0.0959657  0.1438893  0.6567723  1.3932621  0.0866086
-  0.1404007  0.452618   0.2135205  0.2429132  0.3367132  0.2370701
-  0.18326    0.2812594  0.2508065  0.2569596  0.246879   0.223758
-  0.1771136  0.3241631  0.090304   0.3908651  0.1394653  0.211842
-  0.2149018  0.596407   0.2191414  0.2701865  0.2191374  0.0940843
-  0.1978513  1.4858353  0.4425375  0.0877303  0.1229252  0.3528741]</t>
-  </si>
-  <si>
-    <t>[1.4008914 1.0159677 2.8479204 0.1895323 0.2489729 0.3933349 0.2742323
- 0.2687502 0.1836533 0.3178543 0.1714033 0.2046228 0.2676289 0.2101666
- 0.2337092 0.8273147 0.3721635 0.4956474 0.4156817 0.4003558 0.2817912
- 0.2683441 0.321041  1.5289169 4.5016739 0.1345914 0.21143   0.8448084]</t>
-  </si>
-  <si>
-    <t>[2.5840944 1.7147765 5.0980404 0.2260676 0.2954518 0.3702744 0.3087857
- 0.2715463 0.1920094 0.3049672 0.1374268 0.2212186 0.3152504 0.2189048
- 0.2085706 0.9894792 0.2999285 0.2834838 0.3567161 0.2679796 0.1903869
- 0.2342004 0.3321346 1.4869725 3.0964642 0.1451432 0.209584  0.9755203
- 0.2131194 0.5692975 0.7729868 0.2748677 0.2186697 0.4741929 0.2911166
- 0.5315045 0.3104085 0.4272876 0.2659933 0.2653759 0.1385979 0.4116148
- 0.2434244 0.4109299 0.2585798 1.0045028 0.2848512 0.3596804 0.1874648
- 0.178012  0.2864296 3.8981986 1.6738814 0.0997454 0.1692595 0.7338691]</t>
-  </si>
-  <si>
-    <t>[3.4688816 2.0210347 5.437626  0.2332885 0.3102564 0.3546381 0.2860322
- 0.227472  0.1967173 0.2741725 0.1085237 0.1236208 0.3543935 0.2104745
- 0.1906252 0.9427696 0.2598305 0.2807602 0.4466267 0.2610956 0.155161
- 0.1928241 0.2917023 1.4704438 3.0204972 0.1050136 0.1605013 0.9140768
- 0.2077026 0.6917186 0.5719271 0.2487089 0.1888093 0.483552  0.2343688
- 0.4530452 0.2935971 0.3607981 0.1879844 0.2639947 0.1120997 0.3253942
- 0.1638893 0.2842839 0.1927035 0.9671052 0.205784  0.31417   0.1469
- 0.1003638 0.2785703 3.6180717 1.5400932 0.0736438 0.1359069 0.944713
- 0.3706678 0.151354  1.7320067 0.2042226 0.306929  0.2266391 0.436252
- 0.3651231 1.2036809 0.4565491 0.3790302 0.8283306 0.1426042 0.4505031
- 0.2779116 0.1523638 0.3226026 0.3141539 0.1592354 0.175201  0.1316218
- 0.3526773 0.1850767 2.9858499 1.9046799 0.1090444 0.2044248 0.8372633]</t>
-  </si>
-  <si>
-    <t>[0.2520867 0.5972676 0.833654  0.2443371 0.2264189 0.413735  0.228535
- 0.5667448 0.2334389 0.3378425 0.2486905 0.2909388 0.1587044 0.4898887
- 0.2071882 0.727746  0.3730393 0.8181564 0.3416548 0.6918254 0.2253341
- 0.1684587 0.290518  4.711378  2.1408085 0.1208437 0.2592772 0.5494337]</t>
-  </si>
-  <si>
-    <t>[0.2678994 1.0306326 1.0637487 0.3299198 0.2980362 0.5340267 0.2203103
- 0.7221376 0.3527347 0.5663145 0.2983076 0.3489485 0.1874413 0.4353968
- 0.2136471 0.8301172 0.3281998 0.9621    0.3147607 0.647225  0.2780039
- 0.1441019 0.3641716 4.8147504 2.2429849 0.1225018 0.225992  1.0601708
- 0.4147186 0.2382229 2.081543  0.2286263 0.4076103 0.2734733 0.6093145
- 0.6044925 1.1514996 0.3976942 0.3788471 0.9003933 0.1731258 0.6362322
- 0.3089336 0.249011  0.3871696 0.5564859 0.1737419 0.2546479 0.162975
- 0.4746776 0.2103514 4.5617398 3.0636576 0.1090464 0.3693881 0.8484677]</t>
-  </si>
-  <si>
-    <t>[0.1673463 1.04458   1.2218515 0.2582084 0.2112285 0.4319457 0.1669201
- 0.6659111 0.2545266 0.4401639 0.2889994 0.2665517 0.1288649 0.4283944
- 0.1280946 0.615482  0.233443  1.2596377 0.2816968 0.4509082 0.1857871
- 0.1256717 0.2412402 4.0915656 1.5523388 0.0844148 0.1582845 0.8151486
- 0.2823795 0.1548344 2.0762831 0.1809522 0.4366273 0.2231132 0.376126
- 0.4118252 0.9496638 0.4206618 0.3824196 0.6829015 0.1260319 0.4541574
- 0.1438861 0.1683487 0.1581167 0.4601851 0.1071702 0.1561073 0.0892854
- 0.2110238 0.1215167 3.4837028 2.0026659 0.0766482 0.2838455 0.6372757
- 0.3685721 0.2265046 0.7258935 0.2531687 0.2120474 0.9718578 0.3516517
- 0.6639332 0.3272878 0.4164821 0.352705  0.9694022 0.2583615 0.1976752
- 0.3310988 0.1789713 0.4628293 0.1344313 0.145875  0.2705124 0.1972094
- 0.5275691 0.2600176 2.0348478 3.1454616 0.1238523 0.2265631 0.9250663]</t>
-  </si>
-  <si>
-    <t>[0.3283446 0.2217131 1.1274686 0.2170908 0.4468428 0.2358973 0.3682573
- 0.483422  0.7112816 0.3404078 0.3760595 0.5699104 0.1309703 0.5553007
- 0.2908857 0.4268308 0.4123736 0.6720142 0.2286409 0.380795  0.2152377
- 0.3743128 0.2494961 4.8587634 2.5896689 0.1531271 0.3598245 0.4834034]</t>
-  </si>
-  <si>
-    <t>[0.2939903 0.1617824 2.4164707 0.2418682 0.4565044 0.2656136 0.4084637
- 0.4063191 0.957431  0.4181248 0.4154547 0.7263202 0.1373463 0.6627736
- 0.2119264 0.3639908 0.2940952 1.0585123 0.1816645 0.3796371 0.1565254
- 0.3293782 0.2032512 3.9090534 2.3169248 0.1247233 0.356112  0.7645253
- 0.4269192 0.2366447 0.5475508 0.24157   0.2850051 1.1654983 0.3975004
- 0.6047352 0.3268128 0.330889  0.3389947 0.874508  0.17991   0.2866338
- 0.3471246 0.180228  0.4978655 0.2047945 0.2130265 0.2546879 0.264157
- 0.5415425 0.2627224 2.9198616 3.4387845 0.1545126 0.2618036 0.6132527]</t>
-  </si>
-  <si>
-    <t>[0.2897309 0.2281277 2.6607952 0.2465801 0.5590923 0.284705  0.4233111
- 0.3955705 0.9418139 0.3711387 0.4341482 0.7235992 0.1359313 0.7136895
- 0.1873995 0.2743559 0.1981976 1.1080548 0.1970098 0.2455774 0.1281488
- 0.2541907 0.1808074 3.8703824 2.2759365 0.0871188 0.2747952 0.7281939
- 0.3698999 0.2132194 0.5688747 0.2123532 0.221883  1.4710975 0.3559543
- 0.5816998 0.2839023 0.369043  0.2628297 0.7622999 0.2024097 0.251776
- 0.2562732 0.1276769 0.1682519 0.1192168 0.0846921 0.1955686 0.2304945
- 0.3714043 0.1377032 2.7264475 3.7860872 0.1166232 0.1728781 0.6849857
- 0.8548809 0.4519231 0.2646114 0.2194778 0.145258  1.3452562 0.3256333
- 0.3004537 0.3018994 0.3997411 0.3438371 0.7100064 0.8440285 0.313678
- 0.8924568 0.2901586 0.4348167 0.182385  0.422466  0.5959782 0.1290438
- 0.3412792 0.3523505 2.7391518 2.294937  0.1727207 0.3052562 0.9123108]</t>
-  </si>
-  <si>
-    <t>[0.4590854 0.2812985 0.5060997 0.2378156 0.3188104 0.8711361 0.4349476
- 0.5299669 0.2917322 0.3823955 0.2922098 0.7647282 0.2508631 0.331042
- 0.4661364 0.4120783 0.5357259 0.4658776 0.22974   0.3679921 0.2690952
- 0.4851945 0.3307744 2.6990318 5.2109806 0.2474037 0.2937936 0.556407 ]</t>
-  </si>
-  <si>
-    <t>[0.3263836 0.192168  0.557584  0.1930382 0.2253268 1.0725273 0.4270146
- 0.5254532 0.2660561 0.3798881 0.3452304 0.8433605 0.2039148 0.2996263
- 0.2654992 0.2761393 0.2432554 0.4386562 0.1889695 0.2318601 0.2551272
- 0.3699537 0.1880402 2.1384598 5.2562821 0.1279461 0.1825436 0.4690663
- 0.7941838 0.3860347 0.2812734 0.2005632 0.1517463 1.1321992 0.322295
- 0.273037  0.2220257 0.4707417 0.2765577 0.6493277 0.6319531 0.2832073
- 0.8228351 0.4408413 0.3048731 0.1624861 0.3980661 0.6461486 0.149359
- 0.4149341 0.3287792 3.2885953 2.2178677 0.2023052 0.3096082 0.9322653]</t>
-  </si>
-  <si>
-    <t>[0.2882537 0.1751261 0.4330084 0.1640236 0.2831949 0.8615586 0.3144133
- 0.4134649 0.2829571 0.2643123 0.2838429 0.7111342 0.173926  0.2317777
- 0.2430606 0.158915  0.1990912 0.34046   0.0892884 0.2589623 0.3116375
- 0.2589712 0.1711151 1.8657924 2.678814  0.0722659 0.1335009 0.6503905
- 0.6323992 0.2761798 0.2309461 0.1615879 0.1265847 0.9588851 0.3409494
- 0.2736224 0.2130609 0.3815106 0.2271845 0.549158  0.5956858 0.2190017
- 0.4603407 0.2702725 0.1340284 0.1159917 0.174264  0.2939705 0.1326512
- 0.2280623 0.219446  1.6035866 1.508524  0.0957584 0.2236925 0.9141971
- 0.5435893 0.3730857 0.2659749 0.158431  0.0989589 4.0730121 0.2645364
- 0.4985738 0.1825867 0.1992704 0.3634603 0.4322943 0.2389755 0.3749539
- 0.504596  0.2610614 0.2733739 0.1747511 0.694317  0.7761949 0.1496139
- 0.4467877 0.5925272 4.4588418 2.7781702 0.1432449 0.3605343 0.2315089]</t>
-  </si>
-  <si>
-    <t>[0.5732608 0.4000732 0.3600347 0.2350906 0.1683441 0.794765  0.336174
- 0.2611169 0.1877394 0.4668919 0.2534314 0.4509084 0.5531708 0.2431364
- 0.6820733 0.5209916 0.3375106 0.2302943 0.400996  0.5589149 0.2697729
- 0.4184454 0.4009351 3.7406491 4.0608421 0.3152938 0.2973308 0.7011185]</t>
-  </si>
-  <si>
-    <t>[0.5917108 0.332466  0.3072826 0.1295474 0.1595502 1.009179  0.2750281
- 0.2529977 0.2047264 0.4907082 0.2613466 0.4827702 0.7448612 0.2244249
- 0.4735678 0.3364625 0.2974363 0.1667847 0.1948539 0.3334778 0.2242504
- 0.3165106 0.2435098 2.1748066 1.8885506 0.1646857 0.2165733 0.6734915
- 0.4574373 0.4898008 0.2607615 0.14662   0.1572646 3.3144167 0.2340992
- 0.5896484 0.1947007 0.2023402 0.5232929 0.4253152 0.2898676 0.4259242
- 0.4565217 0.344574  0.320278  0.1850008 0.7079261 0.7963713 0.2088321
- 0.4213856 0.5083586 4.9788199 3.6082268 0.1453494 0.3081132 0.2912494]</t>
-  </si>
-  <si>
-    <t>[0.6461137 0.3193644 0.3931714 0.1565637 0.164902  1.0976874 0.4279103
- 0.2710989 0.2434827 0.5248492 0.3447606 0.609939  0.8423226 0.3385805
- 0.5285677 0.2808052 0.3611165 0.1792015 0.2661323 0.3667238 0.257355
- 0.3583158 0.2409953 2.2138398 1.791607  0.1436042 0.2230556 0.2951117
- 0.6091229 0.5573098 0.3060559 0.1380642 0.1278943 4.9109658 0.2999606
- 0.6789296 0.1998172 0.2706425 0.4845978 0.4973208 0.3439836 0.4330388
- 0.3653892 0.1987083 0.3202358 0.1656882 0.6229932 0.5321948 0.1628879
- 0.4090123 0.441812  4.4922687 2.7061833 0.1360109 0.2858891 0.2258782
- 0.2673855 0.11958   0.4857345 0.155489  0.2778875 3.669779  0.854474
- 1.3162614 0.133647  0.4878909 0.3042285 0.42233   0.4815027 0.4013977
- 0.367722  0.3730574 0.1775207 0.2196306 0.6575042 0.9382769 0.2171638
- 0.5838887 0.5492507 3.0662171 3.1925506 0.2036319 0.5409573 0.5665567]</t>
-  </si>
-  <si>
-    <t>[0.3600183 2.674802  1.009983  0.11999   0.4796706 0.3104781 0.3658777
- 0.6662444 0.1587067 0.1995929 0.5078522 0.1617551 0.3493273 0.3558373
- 0.4075315 0.211226  0.3748451 0.2760445 0.3034233 0.2325103 0.3990455
- 0.3432712 0.3786998 1.605154  3.2962653 0.4867287 0.3061423 0.3933149]</t>
-  </si>
-  <si>
-    <t>[18.0558931  3.1667703  3.9700923  0.4173462  0.1281135  0.361424
-  0.3438006  0.3362818  0.4269001  0.7381872  0.3270796  0.3072735
-  0.1442844  0.1247095  0.1284601  0.1533175  0.3214828  0.2443778
-  0.1983655  0.116899   0.1806017  0.163359   0.127521   0.3152421
-  1.6419561  0.1096616  0.1998807  0.6333409  1.5825517  1.0017476
-  4.6178013  0.2755888  0.2514105  0.298792   0.2777887  0.1802293
-  0.1902444  0.2732991  0.1273738  0.1519545  0.2176074  0.1507579
-  0.0986424  0.2808695  0.129224   0.1881552  0.2744002  0.1892306
-  0.1744687  0.0914723  0.121606   0.6683954  1.6929278  0.0792573
-  0.1477247  0.6001895  0.1695889  0.4240985  0.5205614  0.2233157
-  0.146659   0.4214681  0.1981807  0.392858   0.2255391  0.2445425
-  0.1444187  0.2482097  0.1096082  0.3505482  0.1075079  0.1770279
-  0.1420148  0.7172903  0.1862499  0.2245551  0.1823673  0.1118809
-  0.2134722  1.4267392  0.5634792  0.1002516  0.1366858  0.5078134
-  0.6166562  0.2304617  0.1971539  0.1844214  0.1100174  0.9838746
-  0.3544534  0.2156532  0.3391478  0.282202   0.2679458  0.6708283
-  0.9991816  0.3827575  0.3014317  0.1383187  0.2678616  0.2226432
-  0.454355   0.2971955  0.3144992  0.281119   0.2410808  1.1870674
-  0.9219834  0.1225539  0.1431246  0.5416981]</t>
-  </si>
-  <si>
-    <t>[28.026599   3.6912856  6.6998553  0.5951674  0.1264797  0.3996816
-  0.4788798  0.2497723  0.6252701  0.6755627  0.243679   0.3657485
-  0.1865127  0.1497531  0.1701046  0.1984219  0.4054327  0.3216159
-  0.2425996  0.1640912  0.3131795  0.1563486  0.124837   0.3068667
-  1.9015151  0.1005097  0.2287889  0.5277128  3.1602111  1.0699457
-  6.335737   0.3291627  0.2720525  0.2914467  0.3084422  0.1086807
-  0.2244686  0.2578205  0.1668985  0.2173411  0.3514029  0.1545766
-  0.1570396  0.365041   0.1897059  0.2176079  0.3404563  0.2576465
-  0.2726063  0.110877   0.161183   0.5886155  1.5360412  0.089546
-  0.1578879  0.6986536  0.1895778  0.4652369  0.6323979  0.3124856
-  0.2014099  0.4720331  0.2077194  0.3800894  0.331465   0.306561
-  0.2583019  0.3920023  0.1215187  0.3730514  0.1550095  0.2702141
-  0.1474223  0.672857   0.2076875  0.1537738  0.1932663  0.0680055
-  0.1938433  1.8986753  0.6919235  0.0476173  0.1575389  0.3271864
-  0.3163231  0.0807345  2.3902821  0.2100113  0.3428395  0.2372799
-  0.4055743  0.1949736  0.6981054  0.4470446  0.4845366  1.1155333
-  0.1201206  0.6023541  0.0772268  0.1907811  0.148215   0.2906679
-  0.1878796  0.1130715  0.1033712  0.2489505  0.0723967  1.9704615
-  1.3550681  0.064239   0.1787075  0.2728077  0.216066   0.1134911
-  0.3501155  0.3156812  0.2852343  0.9761271  0.16094    0.429673
-  0.1845264  0.2487461  0.4778389  1.0529868  0.2370023  0.3037248
-  0.1445908  0.0774573  0.1792525  0.1555227  0.2094105  0.162719
-  0.2943388  0.3135152  0.1294451  1.267297   1.7995936  0.0709881
-  0.1592983  0.7857355  0.5852609  0.2232948  0.1613372  0.1860522
-  0.1574851  1.2427928  0.3427496  0.2724714  0.343493   0.3825993
-  0.2883695  0.6199865  0.9538866  0.3993386  0.4135713  0.1325321
-  0.235907   0.1810675  0.4917808  0.4141185  0.23665    0.3745979
-  0.3041572  1.4486738  0.7071744  0.1068828  0.1156391  0.8474809]</t>
-  </si>
-  <si>
-    <t>[13.2092733  2.2926838  3.215136   0.2892885  0.117415   0.2091474
-  0.3574777  0.2482199  0.3176529  0.5556959  0.2103693  0.1479891
-  0.116296   0.1077044  0.0865457  0.120552   0.2547063  0.1410151
-  0.1619604  0.1008649  0.1361161  0.1083679  0.1290924  0.6339458
-  2.1269437  0.0892594  0.1670671  0.710382   0.9218624  0.6881784
-  2.2672983  0.1699504  0.1207757  0.1817354  0.1902739  0.1200359
-  0.1213484  0.1877124  0.1020477  0.1117618  0.1763319  0.0933082
-  0.0932066  0.2248477  0.0993368  0.2019042  0.1352259  0.2116567
-  0.1811448  0.0843462  0.1075801  0.6438132  1.2162377  0.0611513
-  0.1007456  0.5639785  0.2393995  0.3843368  0.6885513  0.3245608
-  0.1960561  0.5233575  0.3073953  0.4578736  0.3002033  0.4186295
-  0.2168447  0.3353636  0.1809368  0.3812817  0.1544888  0.2298474
-  0.1973126  1.0825237  0.2656091  0.2757343  0.2909188  0.1391754
-  0.269569   1.9455363  0.663046   0.0727666  0.208344   0.5762613
-  0.7350339  0.3199464  0.3180766  0.1804466  0.1534856  1.2298191
-  0.5667548  0.2606407  0.4876879  0.4176266  0.4112454  1.3619468
-  1.332887   0.4376906  0.4379827  0.22298    0.7550319  0.3007666
-  0.7297618  0.4402596  0.3637962  0.3806763  0.291084   1.428816
-  1.242274   0.1772228  0.2336213  0.901435  12.2090295  1.9554969
-  2.762831   0.2920197  0.1094808  0.2613841  0.2798984  0.2102051
-  0.2794687  0.5118278  0.1933813  0.2835422  0.114892   0.0866757
-  0.0925949  0.1950515  0.2707522  0.1162498  0.2294006  0.1356583
-  0.0955653  0.0834913  0.1272079  0.4024065  1.6831799  0.0713127
-  0.1833545  0.2554136  1.6008889  0.617244   2.3438034  0.2088468
-  0.1591906  0.2508072  0.2424931  0.0814287  0.1100334  0.1894596
-  0.0932987  0.0692631  0.2036771  0.0808776  0.0900468  0.2409706
-  0.1199224  0.191726   0.2503773  0.1459915  0.1857176  0.0717347
-  0.1061056  0.8002022  1.4090932  0.0452647  0.1373674  0.4544183]</t>
+    <t>[  0   2  30   1  28  79  52  24 107  89  96 111 108  29  95  73  55  84
+   9  51  27 102  80  83   3  58  63  69  57  61   8  97  98  23  90 100
+  16   6  43  93  92  40  33 104 103  94  91  86  65   7   5  17  67  11
+  45  34  75  37 105  85  10 106  64  31  76  48  26  59  15  74  78  46
+ 101  62  47  87  72  20  56  36   4  66  54  18  50  71  19  60  21  99
+  32  82  44  35  12  22 110  70  13  39 109  38  88  14  68  41  25  49
+  77  42  81  53]</t>
+  </si>
+  <si>
+    <t>[  0   2  30   1  28 136 107  86 163  24 145  79  52 117  29 152  55  73
+ 123  95   9 108 164  83  51  92 167  16 140 151  58   8 111  57   5 158
+  93  61   3   7 148   6 153 135  97  63  27  94 121  88  37  34 101 154
+  90  11  65 114  69 156 147 146 149  31  40 116  33  64  48 125  59  46
+ 133 119  45 150  32 122 162  10  18  87  26  84 141  17  67  66 161 115
+  62 142  78 139  56  23 124 112 126  43  36  91  47 157  60 105  76  89
+ 132  75  80 159  20 155 131 118  54  21  74  72  82 120  12  96  71  41
+   4  44 103  15 100 166 143 128 138  14  22 110 160 130  42  35 165 104
+ 102  50  38  68  98  70  13  49  19 134 129 113  99 106  39 144 137 127
+  53  85 109  77  25  81]</t>
+  </si>
+  <si>
+    <t>[112   0 142 114  30   2   1 113  79  24 136 107  52  28  89 164 140  96
+ 163  95  73  29 141  58 108  80  84 111 102 100  97  63  69  61 139  51
+ 167  98  27 105  57  93  92   9  67  94 120  62 103   3  64  11   7  90
+  83  65  85 104 121   8  74  55 106  60 115 118  86  16  56  59 117  87
+ 101  43  75  78   6  99 146 128  37  91  46 145  71  76  33 149 152 123
+ 110 143  40  10 157 155  17 138  34   5  66 130  48 122 158  36 109  31
+ 129  15  47 124  45  72  23  18  88 131  70 127 119  20 144  21 162  82
+ 132 160 125 134 135 159  77 148 133  26  32   4 166 137  13  39 150  35
+  50  44 116 153  54  22  68 156  12 147 126  25 154  42 161  19  14  81
+  49  38  41 151 165  53]</t>
+  </si>
+  <si>
+    <t>[6.0660302 1.104774  1.627174  0.3106077 0.1502047 0.249465  0.3125419
+ 0.3545918 0.3771135 0.5228482 0.241521  0.2626157 0.1351489 0.1615783
+ 0.1414033 0.2987232 0.3571154 0.3035684 0.3168314 0.2648594 0.2722464
+ 0.137296  0.2181788 0.4365571 2.1799651 0.1148822 0.2854198 0.6496712]</t>
+  </si>
+  <si>
+    <t>[9.6027696 1.9051293 2.326157  0.4297052 0.2003288 0.3181082 0.3854289
+ 0.3493447 0.4193046 0.4412865 0.2705674 0.3396117 0.1223618 0.1377806
+ 0.1250965 0.195575  0.323912  0.2592119 0.2413401 0.1654852 0.1686516
+ 0.1385997 0.2117319 0.3369635 2.1944989 0.0794076 0.2238522 0.681427
+ 0.9973075 0.7143393 2.3690774 0.215567  0.1902212 0.2647369 0.267336
+ 0.1551488 0.1828145 0.2842887 0.1573747 0.1454969 0.2204671 0.1324044
+ 0.1720659 0.3233999 0.2169223 0.3961427 0.3354737 0.3098273 0.2383367
+ 0.1394353 0.2002441 0.8339009 1.6161268 0.0896852 0.1712036 0.5634206]</t>
+  </si>
+  <si>
+    <t>[13.2071157  2.3001449  3.4937674  0.4724256  0.1891017  0.3507561
+  0.3383285  0.2880957  0.49151    0.5661377  0.2966772  0.2844835
+  0.1361556  0.1220265  0.1046164  0.1781814  0.3207275  0.2018883
+  0.245541   0.1769836  0.1830222  0.1608194  0.1643283  0.3027863
+  1.9048534  0.0918245  0.2390081  0.4632429  1.2436468  0.6137284
+  2.8830341  0.2149319  0.1835719  0.2480634  0.2527853  0.10526
+  0.1672404  0.2975064  0.1402871  0.1542858  0.2056461  0.094929
+  0.1293     0.3529051  0.1757902  0.214526   0.2358176  0.2293566
+  0.1911822  0.0830078  0.1804     0.9621398  1.4491326  0.079937
+  0.1501674  0.4002856  0.1766676  0.3704004  0.3485777  0.2485451
+  0.1980345  0.3009957  0.2802267  0.3255659  0.2804101  0.2958769
+  0.2056988  0.2458191  0.0976513  0.3288773  0.1243483  0.1610707
+  0.2227866  0.6898277  0.2101162  0.2657353  0.2052829  0.1409008
+  0.2244223  1.7220865  0.6302073  0.0865706  0.1289385  0.3689467]</t>
+  </si>
+  <si>
+    <t>[1.3403578 0.9530628 2.4853537 0.1841397 0.2302963 0.3297261 0.2432991
+ 0.2277404 0.1705801 0.2592157 0.1356763 0.1716604 0.2403965 0.1921521
+ 0.2046081 0.7647717 0.3362511 0.4013671 0.4063734 0.3758359 0.2564718
+ 0.2577702 0.3004797 1.526995  3.6083535 0.1276614 0.2261697 1.0000069]</t>
+  </si>
+  <si>
+    <t>[2.505993  1.7075204 4.9933393 0.2470115 0.2411611 0.3905917 0.2538062
+ 0.2799731 0.1899109 0.2951005 0.1495981 0.2474892 0.310642  0.2052005
+ 0.1907387 0.9432825 0.3553654 0.2819011 0.3478206 0.3272349 0.2051419
+ 0.2081224 0.3079217 1.5578837 3.2504683 0.1248889 0.1968775 0.6966815
+ 0.1979744 0.5225761 0.5066137 0.2600114 0.247143  0.3679616 0.3077313
+ 0.4421952 0.3351754 0.3916362 0.1911849 0.3923508 0.1103484 0.3602956
+ 0.2265105 0.4060091 0.2945102 0.7737153 0.3188922 0.4046288 0.2034207
+ 0.1565419 0.3063166 3.3905211 1.5150632 0.0937291 0.1649771 0.7065118]</t>
+  </si>
+  <si>
+    <t>[2.9226049 1.7557687 4.7271043 0.2367142 0.2711827 0.3403852 0.2734713
+ 0.2367514 0.2059185 0.2742678 0.1440375 0.1108316 0.3396275 0.2091943
+ 0.1630645 0.8843891 0.3238947 0.2464041 0.3832607 0.2307821 0.1547858
+ 0.2369529 0.2639961 1.213892  4.0098002 0.1400283 0.1800904 0.9948923
+ 0.1756853 0.6203604 0.839579  0.2675347 0.1826682 0.4212666 0.2330153
+ 0.4778972 0.3187076 0.3771715 0.2077585 0.2603412 0.1167616 0.2970484
+ 0.1519877 0.292698  0.1731825 0.7269899 0.1982356 0.3706471 0.1529864
+ 0.1274947 0.2760373 3.492058  1.140105  0.0580731 0.1287676 0.6780066
+ 0.353675  0.1134704 1.8768439 0.2183553 0.3160478 0.2745446 0.4142451
+ 0.4690972 0.8779482 0.3821935 0.3325212 0.7684369 0.1328203 0.4515086
+ 0.2016178 0.1796617 0.1999655 0.3131452 0.1601514 0.1875111 0.1112117
+ 0.4219437 0.1821792 3.4427721 1.6545624 0.0678434 0.2654004 1.0160644]</t>
+  </si>
+  <si>
+    <t>[0.2347272 0.607163  0.8825959 0.2753295 0.2697433 0.3969676 0.2387121
+ 0.7006093 0.2558457 0.4755867 0.270323  0.2674945 0.1803033 0.4921557
+ 0.2137214 0.8786946 0.4559942 0.9524772 0.3178066 0.7632461 0.271412
+ 0.1528108 0.2819632 5.826106  2.0429499 0.1493079 0.2754463 0.7664524]</t>
+  </si>
+  <si>
+    <t>[0.209133  0.8048101 0.9300816 0.2617181 0.2362912 0.3911553 0.1695645
+ 0.6252426 0.3214875 0.5172546 0.2561655 0.2597001 0.1473995 0.344911
+ 0.1299846 0.7460291 0.2643065 0.8400119 0.2773816 0.5454592 0.207019
+ 0.1069148 0.3085165 3.3750918 1.8748739 0.0940738 0.1760977 0.6395979
+ 0.3264169 0.1622334 1.9639189 0.2029564 0.3263154 0.1837111 0.4241089
+ 0.4756131 0.8029028 0.332334  0.2963519 0.7899201 0.135013  0.5063105
+ 0.2609835 0.2183288 0.2786219 0.3127495 0.1511239 0.1908261 0.134904
+ 0.323238  0.1580151 3.9745568 2.1238356 0.0949141 0.3314943 0.6900844]</t>
+  </si>
+  <si>
+    <t>[0.2274588 1.3203666 1.2458088 0.3490968 0.2789079 0.512327  0.1872579
+ 0.7268064 0.3364946 0.4891232 0.2836944 0.1816417 0.1872185 0.4671391
+ 0.1871094 0.7833222 0.3004108 1.2952309 0.3315705 0.5359306 0.2236681
+ 0.1517458 0.3212706 4.1084062 1.9938291 0.0792384 0.1979448 0.8843284
+ 0.3177646 0.1948433 2.8177382 0.2434056 0.439897  0.2776912 0.3878769
+ 0.4305414 1.1922699 0.4430323 0.3985732 0.6759195 0.1273246 0.524298
+ 0.1857874 0.217678  0.2083255 0.5456401 0.1444946 0.1869798 0.0953142
+ 0.266676  0.1446434 3.9372003 2.2617413 0.092446  0.3095523 0.7176458
+ 0.5461562 0.2889714 0.6816509 0.2425351 0.2487082 1.2934728 0.3956953
+ 0.5745299 0.3675417 0.3091127 0.2824337 0.8096235 0.2577177 0.2689052
+ 0.401586  0.2059079 0.4168377 0.1794083 0.1294949 0.2574747 0.2294465
+ 0.7199164 0.2572237 2.1164743 3.6912226 0.107974  0.2037271 0.441469 ]</t>
+  </si>
+  <si>
+    <t>[0.3032741 0.2006139 1.0577582 0.1950098 0.3474277 0.2181747 0.3339867
+ 0.4561613 0.6112022 0.2986027 0.2860923 0.5604806 0.1191574 0.5469429
+ 0.2576751 0.3612729 0.359178  0.7162717 0.1733455 0.3578001 0.1878504
+ 0.3526424 0.2343205 4.4199625 2.2146606 0.1302124 0.3393252 0.5395858]</t>
+  </si>
+  <si>
+    <t>[0.2918721 0.1791843 2.3061658 0.2361935 0.5421972 0.232793  0.4264392
+ 0.3657928 0.9368929 0.3608901 0.4096816 0.7384125 0.132408  0.6076757
+ 0.1993209 0.3281145 0.3123479 0.9190298 0.2140262 0.2801925 0.1939034
+ 0.2923363 0.1908693 3.8693394 2.0870536 0.1013219 0.35107   0.8548808
+ 0.4227255 0.3075704 0.5477711 0.2259349 0.2626544 1.0682266 0.4278248
+ 0.5225814 0.2745446 0.280088  0.31005   0.691275  0.2418273 0.299849
+ 0.3769217 0.2073838 0.4356428 0.1824045 0.1622372 0.324927  0.2417946
+ 0.4761043 0.2109682 2.4415673 3.4837788 0.1276873 0.2224766 0.7162513]</t>
+  </si>
+  <si>
+    <t>[0.2470561 0.1915195 2.8751036 0.2492265 0.5375861 0.232663  0.3971288
+ 0.4717419 0.8007517 0.36245   0.4485702 0.7145813 0.1112238 0.7648134
+ 0.2284493 0.3858065 0.2194948 1.2010605 0.1710757 0.2744476 0.1687887
+ 0.2426316 0.1357292 4.4676197 1.9810541 0.0935248 0.2711801 0.8600848
+ 0.4159136 0.2321387 0.3974681 0.2198767 0.1924901 1.2017678 0.2807121
+ 0.5460022 0.2341321 0.3544671 0.3177647 0.8451022 0.1646139 0.3159961
+ 0.1639398 0.1607692 0.1593045 0.1146564 0.1274165 0.2287707 0.2495302
+ 0.2780617 0.1631743 2.2016364 4.049449  0.1077017 0.1852998 1.0198017
+ 0.7931461 0.3831861 0.3534302 0.2242807 0.1617526 1.3648493 0.3214857
+ 0.3509426 0.2992772 0.3915714 0.2971984 0.6392047 0.6611935 0.2682257
+ 0.9982777 0.3246138 0.4229006 0.1959269 0.4338839 0.5773517 0.1157294
+ 0.3989807 0.3659804 3.1870827 2.036412  0.1746817 0.2544142 0.7634045]</t>
+  </si>
+  <si>
+    <t>[0.38373   0.2176166 0.3905479 0.2375098 0.3164536 0.7748821 0.3588609
+ 0.5277868 0.2704028 0.3814634 0.2768565 0.6737197 0.1825286 0.3386715
+ 0.4303656 0.371329  0.4836352 0.3886707 0.2357707 0.3642739 0.2596003
+ 0.4896739 0.294716  2.6256374 4.4743459 0.2282294 0.273124  0.4503197]</t>
+  </si>
+  <si>
+    <t>[0.3960054 0.1997722 0.6864295 0.2281714 0.2934817 1.016424  0.4941059
+ 0.6106783 0.3010089 0.3335401 0.2497896 0.7703908 0.2213857 0.436996
+ 0.4496415 0.3563603 0.3406722 0.4434109 0.19365   0.235438  0.3078781
+ 0.3683136 0.2406816 2.6653923 5.5461384 0.1542747 0.2335052 0.8013057
+ 0.8866733 0.4578502 0.323228  0.2282111 0.1920885 1.2073044 0.460978
+ 0.329174  0.2331509 0.5389176 0.3368597 0.6627502 0.7565501 0.2637781
+ 0.6929876 0.5133623 0.3957149 0.1835385 0.4595313 0.7050332 0.1777793
+ 0.4940939 0.3599554 3.3682364 2.9029516 0.1970779 0.3586088 0.9836867]</t>
+  </si>
+  <si>
+    <t>[0.3061877 0.2194715 0.456283  0.193136  0.3187555 1.2766016 0.3273483
+ 0.4783801 0.33779   0.3820178 0.2940149 0.8264716 0.2178839 0.3193179
+ 0.3254088 0.2359234 0.2701609 0.508921  0.1228178 0.2200267 0.2779646
+ 0.4040542 0.151431  1.8072335 3.0149995 0.1245207 0.1687165 0.3066461
+ 0.6503082 0.3053588 0.2169572 0.1951803 0.1750615 0.9649891 0.2747736
+ 0.2321145 0.2504603 0.4825335 0.2386331 0.5580483 0.676906  0.2577046
+ 0.5065872 0.3725422 0.2121608 0.1349504 0.2015806 0.3286237 0.1829539
+ 0.2691668 0.2368337 2.6954888 2.2186362 0.1733675 0.2593017 0.9970581
+ 0.528211  0.4306463 0.3472828 0.1586792 0.1321979 5.5291208 0.3215851
+ 0.6732935 0.294054  0.2848916 0.5844334 0.6240092 0.3023868 0.5488224
+ 0.5228223 0.3580937 0.3293915 0.3109418 0.8329352 0.9667158 0.1950469
+ 0.7777324 0.6906811 5.4450525 3.1778038 0.1578411 0.4188547 0.2274841]</t>
+  </si>
+  <si>
+    <t>[0.5166892 0.3620428 0.2805046 0.1505601 0.1285368 0.7108524 0.248842
+ 0.2105736 0.154752  0.3607438 0.1969172 0.4289068 0.486023  0.2249769
+ 0.6031471 0.4140601 0.2880611 0.1685977 0.3065219 0.4921817 0.2498602
+ 0.3619715 0.3329647 3.1503686 2.9446373 0.2301126 0.2562753 0.6006367]</t>
+  </si>
+  <si>
+    <t>[0.6435601 0.3738911 0.2579911 0.1621233 0.1612886 1.0442915 0.3172954
+ 0.2726843 0.2252453 0.4353351 0.3422524 0.5160289 0.7671728 0.2480545
+ 0.5412075 0.3144698 0.2968849 0.2053718 0.2661716 0.3472921 0.2681273
+ 0.3718843 0.3139713 2.55027   2.3289586 0.1908307 0.1918072 0.7851281
+ 0.5756957 0.4950534 0.2945821 0.1628784 0.1358415 3.8615179 0.2390392
+ 0.6382598 0.231483  0.2306855 0.4600543 0.5309585 0.2550659 0.43618
+ 0.4698378 0.3341992 0.2965263 0.2056712 0.7475417 0.7889295 0.2094423
+ 0.556954  0.6331074 5.0714622 3.4389411 0.2197844 0.3480433 0.2056313]</t>
+  </si>
+  <si>
+    <t>[0.5852869 0.3292031 0.2780608 0.1330042 0.1430712 0.8079942 0.2369196
+ 0.1632184 0.1945091 0.3041574 0.2769623 0.3987381 0.6751658 0.2665619
+ 0.3871523 0.2373941 0.2558104 0.1380172 0.1479169 0.2694682 0.2265196
+ 0.2497951 0.1593841 1.8487718 1.2829973 0.134078  0.1570419 0.4622601
+ 0.4315588 0.3800643 0.2326598 0.1182228 0.0981225 3.7393951 0.277335
+ 0.4226102 0.1840398 0.2417494 0.3965337 0.3823219 0.2537989 0.3108057
+ 0.2827451 0.1771142 0.2390543 0.1367743 0.5473476 0.4444045 0.1212533
+ 0.3521081 0.2640698 3.6529469 1.8641782 0.0891431 0.2240515 0.1995233
+ 0.1905618 0.1441114 0.3484607 0.1112089 0.2030935 3.2068281 0.7216799
+ 0.7968068 0.1443465 0.337846  0.225233  0.2700678 0.3897836 0.2728545
+ 0.2907179 0.299256  0.0985072 0.2014653 0.5522863 0.6350628 0.1251942
+ 0.3772463 0.3790585 2.454233  1.7440022 0.162783  0.4783475 0.3431371]</t>
+  </si>
+  <si>
+    <t>[0.3197976 2.6269642 0.7998005 0.0961598 0.432973  0.2263415 0.3018313
+ 0.5966021 0.1186655 0.1847648 0.4272415 0.1530524 0.297019  0.3520425
+ 0.3597591 0.1934227 0.3451772 0.2623992 0.280551  0.1958118 0.3518689
+ 0.2790405 0.3307444 1.2340056 2.5595564 0.3961205 0.2780675 0.5246318]</t>
+  </si>
+  <si>
+    <t>[16.9181375  3.0646344  4.1389547  0.4262825  0.1685239  0.2760654
+  0.3107924  0.2768512  0.3648829  0.642208   0.2341048  0.2643308
+  0.1366087  0.1199898  0.0935351  0.2107704  0.3142736  0.2661248
+  0.1617652  0.1556976  0.1890907  0.1533005  0.1334275  0.3293124
+  1.7927767  0.0791649  0.2112553  0.5318657  1.8860619  0.7483841
+  4.0161219  0.2181048  0.1481592  0.2960042  0.253563   0.1368841
+  0.1866568  0.2432367  0.0963008  0.1178684  0.2961408  0.0824269
+  0.0719823  0.3092483  0.1410712  0.2579222  0.2026388  0.1922447
+  0.2131176  0.0779334  0.1583135  0.5835527  1.8277126  0.061851
+  0.163395   0.6875194  0.18833    0.3842514  0.4062085  0.21115
+  0.1545639  0.3682357  0.1928244  0.4054652  0.2206071  0.2814497
+  0.164835   0.2647605  0.0897609  0.3844932  0.1262967  0.1573524
+  0.1894098  0.6966925  0.2053577  0.2447667  0.2160467  0.0749374
+  0.203009   1.8460767  0.4619381  0.0643032  0.1454555  0.4320113
+  0.6714193  0.2353058  0.2833206  0.1920323  0.0960376  1.0611028
+  0.3161937  0.2846458  0.2977722  0.3076957  0.2855175  0.739033
+  0.836756   0.3643852  0.3575732  0.1525059  0.315447   0.1958429
+  0.5065692  0.2876741  0.2925812  0.2368157  0.2215425  1.3463546
+  0.7503835  0.0985392  0.1276196  0.7738912]</t>
+  </si>
+  <si>
+    <t>[25.2641226  3.7278221  5.3148575  0.3944795  0.1243216  0.4337531
+  0.3781118  0.3871231  0.4695238  0.6605349  0.2112687  0.2897946
+  0.1271658  0.091034   0.1153034  0.1196196  0.5131836  0.2008562
+  0.2077514  0.0865381  0.1496416  0.1353866  0.1148588  0.1861108
+  1.1237327  0.0468589  0.2037673  0.3468599  1.8694988  0.9080036
+  4.8486599  0.2593171  0.2202817  0.244846   0.309195   0.1109313
+  0.1753005  0.3188264  0.0985156  0.0745328  0.2565252  0.1243286
+  0.1112283  0.176242   0.1231135  0.2223696  0.2264464  0.1693196
+  0.2384596  0.0888953  0.0989203  0.5774199  1.0291175  0.0590192
+  0.1371389  0.7553251  0.1862943  0.4374481  0.4736215  0.2265413
+  0.1677752  0.4113977  0.1914049  0.350143   0.2398043  0.2843396
+  0.1957041  0.1974037  0.0967796  0.2773945  0.0922566  0.1256006
+  0.1298092  0.7129413  0.1352035  0.1597947  0.1656816  0.0516088
+  0.1905037  1.1063319  0.1585263  0.0371721  0.1296568  0.5807203
+  0.203345   0.0567916  1.1270702  0.2041301  0.3226289  0.1636132
+  0.2958728  0.1699588  0.565233   0.4133693  0.3377333  0.6796589
+  0.1256168  0.3604063  0.0963313  0.0825478  0.1190458  0.3048063
+  0.0997312  0.1216386  0.1007112  0.1673663  0.0805186  1.2016774
+  0.6305516  0.0560024  0.1135178  0.455313   0.1837023  0.0828748
+  0.2812278  0.1914885  0.2549613  1.0029712  0.1387829  0.2238449
+  0.1279041  0.3334289  0.2166743  0.6948836  0.1845928  0.2365749
+  0.1822398  0.0653007  0.1170787  0.0838294  0.1124338  0.1445814
+  0.1607545  0.2264134  0.0852919  0.3605633  1.3545981  0.0659703
+  0.1155384  0.1875649  0.5118586  0.2019678  0.1914044  0.117337
+  0.070122   1.1157652  0.2638009  0.2649681  0.3822189  0.2595737
+  0.220627   0.4908694  0.8518123  0.3729735  0.3045413  0.1476199
+  0.2660605  0.1683725  0.4321736  0.14974    0.1130735  0.1949654
+  0.2144433  1.1239792  0.5871261  0.1059484  0.1181246  0.5340667]</t>
+  </si>
+  <si>
+    <t>[11.8684129  2.2256858  2.4438311  0.3309039  0.1041092  0.1705102
+  0.2239565  0.3254767  0.2770494  0.3779181  0.1763111  0.3292571
+  0.0845753  0.1008321  0.0712459  0.1486032  0.2554242  0.1736364
+  0.1356877  0.0719753  0.1285384  0.1261388  0.0869779  0.1414614
+  1.6554935  0.0828368  0.107046   0.4296124  1.2547392  0.8086678
+  2.5667891  0.1502653  0.1045056  0.1945826  0.1708791  0.0991132
+  0.160055   0.2067346  0.06069    0.1005705  0.1782608  0.060365
+  0.0758223  0.2326894  0.0967316  0.1461893  0.2039278  0.1476406
+  0.1622439  0.0627168  0.0986713  0.4375845  1.3300358  0.053847
+  0.0893776  0.2731717  0.2534256  0.4099027  0.788693   0.2530702
+  0.2699527  0.4493757  0.3501123  0.4776924  0.3305875  0.3143763
+  0.1688011  0.3620841  0.0860752  0.4648457  0.1320114  0.2033939
+  0.1437793  0.8824158  0.2751475  0.2326891  0.196084   0.1128401
+  0.225486   1.7023612  0.7287227  0.0706773  0.1253813  0.3148025
+  0.723167   0.3133354  0.2567425  0.2421547  0.1331542  1.10336
+  0.3172097  0.2049868  0.3840531  0.4098109  0.3584419  0.8831579
+  1.0407441  0.4921328  0.4331594  0.218848   0.504187   0.2407522
+  0.5907893  0.3419653  0.3098375  0.413586   0.2715217  1.4770784
+  0.7403316  0.1506387  0.1824286  0.6324344 12.2287968  1.7856012
+  2.7332405  0.2588883  0.0955826  0.2482855  0.2583605  0.1302867
+  0.3550014  0.2974471  0.1621844  0.1870132  0.1474599  0.1207857
+  0.0834353  0.1310316  0.2171022  0.1494801  0.163903   0.1331425
+  0.1250702  0.107226   0.1200959  0.1184183  1.6451659  0.1036181
+  0.1715007  0.4391061  1.0657182  0.7961256  2.8389545  0.1791344
+  0.1263557  0.2035394  0.2176282  0.0840109  0.1110412  0.1922066
+  0.0999822  0.0578562  0.187455   0.0905     0.0774473  0.173944
+  0.0851499  0.1746677  0.1606323  0.1145789  0.1214322  0.0757344
+  0.1254862  0.8944697  1.0945583  0.0577313  0.1036285  0.434371 ]</t>
   </si>
   <si>
     <t>_1</t>
@@ -917,13 +917,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.624</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="C2">
-        <v>0.63300000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D2">
-        <v>0.627</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.60899999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C3">
-        <v>0.61699999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D3">
-        <v>0.61699999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,13 +945,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.60599999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="C4">
-        <v>0.61199999999999999</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D4">
-        <v>0.61799999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.61599999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C5">
-        <v>0.63100000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D5">
-        <v>0.61299999999999999</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.60099999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="C6">
-        <v>0.61799999999999999</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D6">
-        <v>0.63100000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.63700000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.64900000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D7">
-        <v>0.65900000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.64100000000000001</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C8">
-        <v>0.64600000000000002</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D8">
-        <v>0.64900000000000002</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.64300000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="C9">
-        <v>0.625</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D9">
-        <v>0.64300000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,13 +1029,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.63</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="C10">
-        <v>0.65200000000000002</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D10">
-        <v>0.64400000000000002</v>
+        <v>0.59199999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.65100000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D11">
-        <v>0.64600000000000002</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0.64800000000000002</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C12">
-        <v>0.65600000000000003</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D12">
-        <v>0.67</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.64700000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="C13">
-        <v>0.66100000000000003</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D13">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,13 +1085,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="C14">
-        <v>0.63200000000000001</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D14">
-        <v>0.67100000000000004</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.64900000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C15">
-        <v>0.66600000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D15">
-        <v>0.66500000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.63300000000000001</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C16">
-        <v>0.65900000000000003</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D16">
-        <v>0.66700000000000004</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,13 +1127,13 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.66600000000000004</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C17">
-        <v>0.67100000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D17">
-        <v>0.68500000000000005</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,13 +1141,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0.67</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C18">
-        <v>0.69799999999999995</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D18">
-        <v>0.68799999999999994</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.66900000000000004</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="C19">
-        <v>0.67200000000000004</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D19">
-        <v>0.68899999999999995</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0.66700000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C20">
-        <v>0.67400000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="D20">
-        <v>0.69499999999999995</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0.66400000000000003</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="C21">
-        <v>0.68899999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D21">
-        <v>0.68200000000000005</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>0.66800000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="C22">
-        <v>0.69299999999999995</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D22">
-        <v>0.69799999999999995</v>
+        <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.67800000000000005</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="C23">
-        <v>0.67600000000000005</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D23">
-        <v>0.70299999999999996</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.66900000000000004</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="C24">
-        <v>0.67900000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="D24">
-        <v>0.68500000000000005</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.66700000000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="C25">
-        <v>0.67600000000000005</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D25">
-        <v>0.68200000000000005</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>0.66900000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="C26">
-        <v>0.68700000000000006</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D26">
-        <v>0.68400000000000005</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.68300000000000005</v>
+        <v>0.622</v>
       </c>
       <c r="C27">
-        <v>0.70199999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="D27">
-        <v>0.71499999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>0.68</v>
+        <v>0.625</v>
       </c>
       <c r="C28">
-        <v>0.69299999999999995</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D28">
-        <v>0.7</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.69799999999999995</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="C29">
-        <v>0.67900000000000005</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D29">
-        <v>0.71699999999999997</v>
+        <v>0.64700000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,13 +1309,13 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.66800000000000004</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="C30">
-        <v>0.69699999999999995</v>
+        <v>0.629</v>
       </c>
       <c r="D30">
-        <v>0.70499999999999996</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>0.69799999999999995</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C31">
-        <v>0.69</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D31">
-        <v>0.70099999999999996</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,13 +1337,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.65500000000000003</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="C32">
-        <v>0.67300000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="D32">
-        <v>0.69199999999999995</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>0.67300000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="C33">
-        <v>0.67800000000000005</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D33">
-        <v>0.68400000000000005</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.66</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="C34">
-        <v>0.68200000000000005</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D34">
-        <v>0.68799999999999994</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.67</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="C35">
-        <v>0.69399999999999995</v>
+        <v>0.623</v>
       </c>
       <c r="D35">
-        <v>0.68300000000000005</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>0.67400000000000004</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="C36">
-        <v>0.68899999999999995</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D36">
-        <v>0.68600000000000005</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,13 +1407,13 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>0.67500000000000004</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C37">
-        <v>0.66700000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D37">
-        <v>0.69899999999999995</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1421,13 +1421,13 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.65200000000000002</v>
+        <v>0.624</v>
       </c>
       <c r="C38">
-        <v>0.67700000000000005</v>
+        <v>0.621</v>
       </c>
       <c r="D38">
-        <v>0.68300000000000005</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.68100000000000005</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C39">
-        <v>0.67600000000000005</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D39">
-        <v>0.70299999999999996</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,13 +1449,13 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>0.67</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C40">
-        <v>0.66600000000000004</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D40">
-        <v>0.68200000000000005</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>0.68200000000000005</v>
+        <v>0.626</v>
       </c>
       <c r="C41">
-        <v>0.66300000000000003</v>
+        <v>0.622</v>
       </c>
       <c r="D41">
-        <v>0.70799999999999996</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1477,13 +1477,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>0.66</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="C42">
-        <v>0.65300000000000002</v>
+        <v>0.629</v>
       </c>
       <c r="D42">
-        <v>0.70799999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,13 +1491,13 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>0.66800000000000004</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="C43">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D43">
         <v>0.66600000000000004</v>
-      </c>
-      <c r="D43">
-        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,13 +1505,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.64200000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="C44">
-        <v>0.70299999999999996</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D44">
-        <v>0.71099999999999997</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,13 +1519,13 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>0.66100000000000003</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="C45">
-        <v>0.67300000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D45">
-        <v>0.69799999999999995</v>
+        <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1533,13 +1533,13 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>0.67100000000000004</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C46">
-        <v>0.67500000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="D46">
-        <v>0.71299999999999997</v>
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1547,13 +1547,13 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0.64100000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C47">
-        <v>0.64300000000000002</v>
+        <v>0.59</v>
       </c>
       <c r="D47">
-        <v>0.624</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,13 +1561,13 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>0.64400000000000002</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C48">
-        <v>0.64</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D48">
-        <v>0.628</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,13 +1575,13 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>0.622</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C49">
-        <v>0.626</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D49">
-        <v>0.64100000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1589,13 +1589,13 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>0.64900000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="C50">
-        <v>0.63900000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D50">
-        <v>0.64800000000000002</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,13 +1603,13 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>0.64500000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C51">
-        <v>0.65200000000000002</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D51">
-        <v>0.63400000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1617,13 +1617,13 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.64700000000000002</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C52">
-        <v>0.66900000000000004</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D52">
-        <v>0.68799999999999994</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1631,13 +1631,13 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.64300000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="C53">
-        <v>0.67</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D53">
-        <v>0.68200000000000005</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,13 +1645,13 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>0.63600000000000001</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="C54">
-        <v>0.67500000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D54">
-        <v>0.66800000000000004</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1659,13 +1659,13 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0.65300000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C55">
-        <v>0.67200000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="D55">
-        <v>0.68899999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,13 +1673,13 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>0.65500000000000003</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C56">
-        <v>0.65800000000000003</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D56">
-        <v>0.68700000000000006</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,13 +1687,13 @@
         <v>15</v>
       </c>
       <c r="B57">
-        <v>0.65500000000000003</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="C57">
-        <v>0.67</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D57">
-        <v>0.69099999999999995</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,13 +1701,13 @@
         <v>15</v>
       </c>
       <c r="B58">
-        <v>0.66</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="C58">
-        <v>0.67100000000000004</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D58">
-        <v>0.70899999999999996</v>
+        <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>0.65100000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="C59">
-        <v>0.66100000000000003</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D59">
-        <v>0.69799999999999995</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,13 +1729,13 @@
         <v>15</v>
       </c>
       <c r="B60">
-        <v>0.66300000000000003</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="C60">
-        <v>0.67400000000000004</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D60">
-        <v>0.70499999999999996</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>0.629</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="C61">
-        <v>0.65</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D61">
-        <v>0.7</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>0.61</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="C62">
-        <v>0.63300000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D62">
-        <v>0.64700000000000002</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,13 +1771,13 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>0.61699999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C63">
-        <v>0.61299999999999999</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D63">
-        <v>0.63600000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>0.64800000000000002</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="C64">
-        <v>0.63200000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D64">
-        <v>0.623</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1799,13 +1799,13 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <v>0.63700000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C65">
-        <v>0.64600000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D65">
-        <v>0.64100000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,13 +1813,13 @@
         <v>16</v>
       </c>
       <c r="B66">
-        <v>0.623</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="C66">
-        <v>0.63</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D66">
-        <v>0.65</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1827,13 +1827,13 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>0.627</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="C67">
-        <v>0.65200000000000002</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D67">
-        <v>0.64400000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1841,13 +1841,13 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>0.61499999999999999</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="C68">
-        <v>0.66700000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="D68">
-        <v>0.66900000000000004</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1855,13 +1855,13 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>0.622</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="C69">
-        <v>0.65800000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D69">
-        <v>0.64400000000000002</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,13 +1869,13 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>0.57799999999999996</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="C70">
-        <v>0.64700000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D70">
-        <v>0.65300000000000002</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,13 +1883,13 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>0.61599999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="C71">
-        <v>0.66200000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D71">
-        <v>0.66700000000000004</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1897,13 +1897,13 @@
         <v>18</v>
       </c>
       <c r="B72">
-        <v>0.46600000000000003</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="C72">
-        <v>0.52100000000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D72">
-        <v>0.53300000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1911,13 +1911,13 @@
         <v>18</v>
       </c>
       <c r="B73">
-        <v>0.53600000000000003</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="C73">
-        <v>0.51200000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D73">
-        <v>0.52600000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,13 +1925,13 @@
         <v>18</v>
       </c>
       <c r="B74">
-        <v>0.501</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="C74">
-        <v>0.53400000000000003</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D74">
-        <v>0.53300000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,13 +1939,13 @@
         <v>18</v>
       </c>
       <c r="B75">
-        <v>0.51700000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C75">
-        <v>0.55000000000000004</v>
+        <v>0.503</v>
       </c>
       <c r="D75">
-        <v>0.53700000000000003</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,10 +1953,10 @@
         <v>18</v>
       </c>
       <c r="B76">
-        <v>0.51</v>
+        <v>0.499</v>
       </c>
       <c r="C76">
-        <v>0.47699999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="D76">
         <v>0.56200000000000006</v>
@@ -1967,13 +1967,13 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>0.59499999999999997</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C77">
-        <v>0.65700000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D77">
-        <v>0.60299999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1981,13 +1981,13 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>0.60899999999999999</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="C78">
-        <v>0.66400000000000003</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D78">
-        <v>0.61599999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1995,13 +1995,13 @@
         <v>19</v>
       </c>
       <c r="B79">
-        <v>0.61499999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="C79">
-        <v>0.66200000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D79">
-        <v>0.621</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,13 +2009,13 @@
         <v>19</v>
       </c>
       <c r="B80">
-        <v>0.59599999999999997</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="C80">
-        <v>0.67100000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D80">
-        <v>0.625</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>19</v>
       </c>
       <c r="B81">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="C81">
         <v>0.621</v>
       </c>
-      <c r="C81">
-        <v>0.66400000000000003</v>
-      </c>
       <c r="D81">
-        <v>0.628</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,13 +2037,13 @@
         <v>20</v>
       </c>
       <c r="B82">
-        <v>0.498</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="C82">
-        <v>0.51600000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D82">
-        <v>0.54200000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,13 +2051,13 @@
         <v>20</v>
       </c>
       <c r="B83">
-        <v>0.54700000000000004</v>
+        <v>0.497</v>
       </c>
       <c r="C83">
-        <v>0.52800000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="D83">
-        <v>0.57199999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,13 +2065,13 @@
         <v>20</v>
       </c>
       <c r="B84">
-        <v>0.503</v>
+        <v>0.504</v>
       </c>
       <c r="C84">
-        <v>0.53700000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D84">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,13 +2079,13 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <v>0.51500000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="C85">
-        <v>0.51700000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D85">
-        <v>0.59</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="B86">
-        <v>0.504</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="C86">
-        <v>0.53200000000000003</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D86">
-        <v>0.54200000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2107,13 +2107,13 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>0.58199999999999996</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="C87">
-        <v>0.59499999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="D87">
-        <v>0.60699999999999998</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,13 +2121,13 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>0.57099999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="C88">
-        <v>0.59699999999999998</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D88">
-        <v>0.61</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2135,13 +2135,13 @@
         <v>21</v>
       </c>
       <c r="B89">
-        <v>0.57399999999999995</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C89">
-        <v>0.59599999999999997</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D89">
-        <v>0.60699999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2149,13 +2149,13 @@
         <v>21</v>
       </c>
       <c r="B90">
-        <v>0.55300000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="C90">
-        <v>0.57799999999999996</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D90">
-        <v>0.626</v>
+        <v>0.58699999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>21</v>
       </c>
       <c r="B91">
-        <v>0.56399999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="C91">
-        <v>0.6</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D91">
-        <v>0.624</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,13 +2177,13 @@
         <v>22</v>
       </c>
       <c r="B92">
-        <v>0.60499999999999998</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="C92">
-        <v>0.60299999999999998</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D92">
-        <v>0.61499999999999999</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2191,13 +2191,13 @@
         <v>22</v>
       </c>
       <c r="B93">
-        <v>0.61</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="C93">
-        <v>0.61699999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D93">
-        <v>0.57999999999999996</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,13 +2205,13 @@
         <v>22</v>
       </c>
       <c r="B94">
-        <v>0.61</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C94">
-        <v>0.60799999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="D94">
-        <v>0.6</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2219,13 +2219,13 @@
         <v>22</v>
       </c>
       <c r="B95">
-        <v>0.59899999999999998</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="C95">
-        <v>0.59499999999999997</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D95">
-        <v>0.58499999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,13 +2233,13 @@
         <v>22</v>
       </c>
       <c r="B96">
-        <v>0.60299999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="C96">
-        <v>0.63100000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D96">
-        <v>0.58599999999999997</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2247,13 +2247,13 @@
         <v>23</v>
       </c>
       <c r="B97">
-        <v>0.67900000000000005</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="C97">
-        <v>0.69</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="D97">
-        <v>0.69799999999999995</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>23</v>
       </c>
       <c r="B98">
-        <v>0.67600000000000005</v>
+        <v>0.626</v>
       </c>
       <c r="C98">
-        <v>0.69</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D98">
-        <v>0.68700000000000006</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2275,13 +2275,13 @@
         <v>23</v>
       </c>
       <c r="B99">
-        <v>0.67800000000000005</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C99">
-        <v>0.69499999999999995</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D99">
-        <v>0.68500000000000005</v>
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2289,13 +2289,13 @@
         <v>23</v>
       </c>
       <c r="B100">
-        <v>0.65400000000000003</v>
+        <v>0.629</v>
       </c>
       <c r="C100">
-        <v>0.67900000000000005</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D100">
-        <v>0.69099999999999995</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2303,13 +2303,13 @@
         <v>23</v>
       </c>
       <c r="B101">
-        <v>0.67800000000000005</v>
+        <v>0.627</v>
       </c>
       <c r="C101">
-        <v>0.69099999999999995</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D101">
-        <v>0.7</v>
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2317,13 +2317,13 @@
         <v>24</v>
       </c>
       <c r="B102">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C102">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D102">
         <v>0.68700000000000006</v>
-      </c>
-      <c r="C102">
-        <v>0.69</v>
-      </c>
-      <c r="D102">
-        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,13 +2331,13 @@
         <v>24</v>
       </c>
       <c r="B103">
-        <v>0.67200000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="C103">
-        <v>0.69799999999999995</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="D103">
-        <v>0.73</v>
+        <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2345,13 +2345,13 @@
         <v>24</v>
       </c>
       <c r="B104">
-        <v>0.69199999999999995</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="C104">
-        <v>0.69399999999999995</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D104">
-        <v>0.71199999999999997</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2359,13 +2359,13 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>0.68100000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="C105">
-        <v>0.69699999999999995</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D105">
-        <v>0.71099999999999997</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,13 +2373,13 @@
         <v>24</v>
       </c>
       <c r="B106">
-        <v>0.7</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="C106">
-        <v>0.71399999999999997</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D106">
-        <v>0.70699999999999996</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2387,13 +2387,13 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>0.66500000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="C107">
-        <v>0.68300000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="D107">
-        <v>0.69899999999999995</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2401,13 +2401,13 @@
         <v>25</v>
       </c>
       <c r="B108">
-        <v>0.68</v>
+        <v>0.629</v>
       </c>
       <c r="C108">
-        <v>0.67200000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D108">
-        <v>0.69599999999999995</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,13 +2415,13 @@
         <v>25</v>
       </c>
       <c r="B109">
-        <v>0.68100000000000005</v>
+        <v>0.628</v>
       </c>
       <c r="C109">
-        <v>0.67500000000000004</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D109">
-        <v>0.69399999999999995</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2429,13 +2429,13 @@
         <v>25</v>
       </c>
       <c r="B110">
-        <v>0.68600000000000005</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="C110">
-        <v>0.69199999999999995</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D110">
-        <v>0.69399999999999995</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2443,13 +2443,13 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>0.68100000000000005</v>
+        <v>0.64</v>
       </c>
       <c r="C111">
-        <v>0.68</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D111">
-        <v>0.70499999999999996</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2684,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D331"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,7 +2712,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.624</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -2726,7 +2726,7 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>0.63300000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -2740,7 +2740,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>0.627</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -2754,7 +2754,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.60899999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2768,7 +2768,7 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>0.61699999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2782,7 +2782,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>0.61699999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -2796,7 +2796,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.60599999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -2810,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <v>0.61199999999999999</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -2824,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0.61799999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -2838,7 +2838,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>0.61599999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -2852,7 +2852,7 @@
         <v>75</v>
       </c>
       <c r="C12">
-        <v>0.63100000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -2866,7 +2866,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>0.61299999999999999</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -2880,7 +2880,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>0.60099999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2894,7 +2894,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>0.61799999999999999</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -2908,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0.63100000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -2922,7 +2922,7 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>0.63700000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -2936,7 +2936,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>0.64900000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -2950,7 +2950,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>0.65900000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2964,7 +2964,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>0.64100000000000001</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2978,7 +2978,7 @@
         <v>75</v>
       </c>
       <c r="C21">
-        <v>0.64600000000000002</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2992,7 +2992,7 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>0.64900000000000002</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -3006,7 +3006,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>0.64300000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -3020,7 +3020,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>0.625</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -3034,7 +3034,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.64300000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -3048,7 +3048,7 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>0.63</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -3062,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="C27">
-        <v>0.65200000000000002</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -3076,7 +3076,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.64400000000000002</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -3090,7 +3090,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>0.65100000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -3104,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>0.65</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -3118,7 +3118,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.64600000000000002</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -3132,7 +3132,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.64800000000000002</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -3146,7 +3146,7 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>0.65600000000000003</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -3160,7 +3160,7 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>0.67</v>
+        <v>0.628</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -3174,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>0.64700000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -3188,7 +3188,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>0.66100000000000003</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -3202,7 +3202,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -3216,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>0.65</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -3230,7 +3230,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0.63200000000000001</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -3244,7 +3244,7 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>0.67100000000000004</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -3258,7 +3258,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>0.64900000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -3272,7 +3272,7 @@
         <v>75</v>
       </c>
       <c r="C42">
-        <v>0.66600000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -3286,7 +3286,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.66500000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -3300,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>0.63300000000000001</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -3314,7 +3314,7 @@
         <v>75</v>
       </c>
       <c r="C45">
-        <v>0.65900000000000003</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
@@ -3328,7 +3328,7 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>0.66700000000000004</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -3342,7 +3342,7 @@
         <v>100</v>
       </c>
       <c r="C47">
-        <v>0.66600000000000004</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3356,7 +3356,7 @@
         <v>75</v>
       </c>
       <c r="C48">
-        <v>0.67100000000000004</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3370,7 +3370,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>0.68500000000000005</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -3384,7 +3384,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>0.67</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -3398,7 +3398,7 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>0.69799999999999995</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -3412,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.68799999999999994</v>
+        <v>0.622</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -3426,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>0.66900000000000004</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
@@ -3440,7 +3440,7 @@
         <v>75</v>
       </c>
       <c r="C54">
-        <v>0.67200000000000004</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3454,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>0.68899999999999995</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3468,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>0.66700000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -3482,7 +3482,7 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>0.67400000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -3496,7 +3496,7 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>0.69499999999999995</v>
+        <v>0.627</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
@@ -3510,7 +3510,7 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>0.66400000000000003</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
@@ -3524,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="C60">
-        <v>0.68899999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
@@ -3538,7 +3538,7 @@
         <v>50</v>
       </c>
       <c r="C61">
-        <v>0.68200000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -3552,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>0.66800000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D62" t="s">
         <v>80</v>
@@ -3566,7 +3566,7 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.69299999999999995</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
@@ -3580,7 +3580,7 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>0.69799999999999995</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -3594,7 +3594,7 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>0.67800000000000005</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -3608,7 +3608,7 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.67600000000000005</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
@@ -3622,7 +3622,7 @@
         <v>50</v>
       </c>
       <c r="C67">
-        <v>0.70299999999999996</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D67" t="s">
         <v>80</v>
@@ -3636,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>0.66900000000000004</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -3650,7 +3650,7 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>0.67900000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -3664,7 +3664,7 @@
         <v>50</v>
       </c>
       <c r="C70">
-        <v>0.68500000000000005</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
@@ -3678,7 +3678,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>0.66700000000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
@@ -3692,7 +3692,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.67600000000000005</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
@@ -3706,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.68200000000000005</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -3720,7 +3720,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>0.66900000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="D74" t="s">
         <v>80</v>
@@ -3734,7 +3734,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.68700000000000006</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -3748,7 +3748,7 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <v>0.68400000000000005</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
@@ -3762,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="C77">
-        <v>0.68300000000000005</v>
+        <v>0.622</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -3776,7 +3776,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <v>0.70199999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -3790,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <v>0.71499999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D79" t="s">
         <v>80</v>
@@ -3804,7 +3804,7 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>0.68</v>
+        <v>0.625</v>
       </c>
       <c r="D80" t="s">
         <v>80</v>
@@ -3818,7 +3818,7 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>0.69299999999999995</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
@@ -3832,7 +3832,7 @@
         <v>50</v>
       </c>
       <c r="C82">
-        <v>0.7</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
@@ -3846,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>0.69799999999999995</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D83" t="s">
         <v>80</v>
@@ -3860,7 +3860,7 @@
         <v>75</v>
       </c>
       <c r="C84">
-        <v>0.67900000000000005</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D84" t="s">
         <v>80</v>
@@ -3874,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="C85">
-        <v>0.71699999999999997</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="D85" t="s">
         <v>80</v>
@@ -3888,7 +3888,7 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>0.66800000000000004</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D86" t="s">
         <v>80</v>
@@ -3902,7 +3902,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>0.69699999999999995</v>
+        <v>0.629</v>
       </c>
       <c r="D87" t="s">
         <v>80</v>
@@ -3916,7 +3916,7 @@
         <v>50</v>
       </c>
       <c r="C88">
-        <v>0.70499999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="D88" t="s">
         <v>80</v>
@@ -3930,7 +3930,7 @@
         <v>100</v>
       </c>
       <c r="C89">
-        <v>0.69799999999999995</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -3944,7 +3944,7 @@
         <v>75</v>
       </c>
       <c r="C90">
-        <v>0.69</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D90" t="s">
         <v>80</v>
@@ -3958,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>0.70099999999999996</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D91" t="s">
         <v>80</v>
@@ -3972,7 +3972,7 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>0.65500000000000003</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D92" t="s">
         <v>80</v>
@@ -3986,7 +3986,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.67300000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="D93" t="s">
         <v>80</v>
@@ -4000,7 +4000,7 @@
         <v>50</v>
       </c>
       <c r="C94">
-        <v>0.69199999999999995</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D94" t="s">
         <v>80</v>
@@ -4014,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.67300000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4028,7 +4028,7 @@
         <v>75</v>
       </c>
       <c r="C96">
-        <v>0.67800000000000005</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
@@ -4042,7 +4042,7 @@
         <v>50</v>
       </c>
       <c r="C97">
-        <v>0.68400000000000005</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -4056,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>0.66</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D98" t="s">
         <v>80</v>
@@ -4070,7 +4070,7 @@
         <v>75</v>
       </c>
       <c r="C99">
-        <v>0.68200000000000005</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D99" t="s">
         <v>80</v>
@@ -4084,7 +4084,7 @@
         <v>50</v>
       </c>
       <c r="C100">
-        <v>0.68799999999999994</v>
+        <v>0.64</v>
       </c>
       <c r="D100" t="s">
         <v>80</v>
@@ -4098,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.67</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="D101" t="s">
         <v>80</v>
@@ -4112,7 +4112,7 @@
         <v>75</v>
       </c>
       <c r="C102">
-        <v>0.69399999999999995</v>
+        <v>0.623</v>
       </c>
       <c r="D102" t="s">
         <v>80</v>
@@ -4126,7 +4126,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.68300000000000005</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D103" t="s">
         <v>80</v>
@@ -4140,7 +4140,7 @@
         <v>100</v>
       </c>
       <c r="C104">
-        <v>0.67400000000000004</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D104" t="s">
         <v>80</v>
@@ -4154,7 +4154,7 @@
         <v>75</v>
       </c>
       <c r="C105">
-        <v>0.68899999999999995</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
@@ -4168,7 +4168,7 @@
         <v>50</v>
       </c>
       <c r="C106">
-        <v>0.68600000000000005</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D106" t="s">
         <v>80</v>
@@ -4182,7 +4182,7 @@
         <v>100</v>
       </c>
       <c r="C107">
-        <v>0.67500000000000004</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D107" t="s">
         <v>80</v>
@@ -4196,7 +4196,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.66700000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -4210,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="C109">
-        <v>0.69899999999999995</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D109" t="s">
         <v>80</v>
@@ -4224,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>0.65200000000000002</v>
+        <v>0.624</v>
       </c>
       <c r="D110" t="s">
         <v>80</v>
@@ -4238,7 +4238,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.67700000000000005</v>
+        <v>0.621</v>
       </c>
       <c r="D111" t="s">
         <v>80</v>
@@ -4252,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <v>0.68300000000000005</v>
+        <v>0.625</v>
       </c>
       <c r="D112" t="s">
         <v>80</v>
@@ -4266,7 +4266,7 @@
         <v>100</v>
       </c>
       <c r="C113">
-        <v>0.68100000000000005</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D113" t="s">
         <v>80</v>
@@ -4280,7 +4280,7 @@
         <v>75</v>
       </c>
       <c r="C114">
-        <v>0.67600000000000005</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -4294,7 +4294,7 @@
         <v>50</v>
       </c>
       <c r="C115">
-        <v>0.70299999999999996</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4308,7 +4308,7 @@
         <v>100</v>
       </c>
       <c r="C116">
-        <v>0.67</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D116" t="s">
         <v>80</v>
@@ -4322,7 +4322,7 @@
         <v>75</v>
       </c>
       <c r="C117">
-        <v>0.66600000000000004</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -4336,7 +4336,7 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>0.68200000000000005</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -4350,7 +4350,7 @@
         <v>100</v>
       </c>
       <c r="C119">
-        <v>0.68200000000000005</v>
+        <v>0.626</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -4364,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="C120">
-        <v>0.66300000000000003</v>
+        <v>0.622</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -4378,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="C121">
-        <v>0.70799999999999996</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
@@ -4392,7 +4392,7 @@
         <v>100</v>
       </c>
       <c r="C122">
-        <v>0.66</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -4406,7 +4406,7 @@
         <v>75</v>
       </c>
       <c r="C123">
-        <v>0.65300000000000002</v>
+        <v>0.629</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -4420,7 +4420,7 @@
         <v>50</v>
       </c>
       <c r="C124">
-        <v>0.70799999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -4434,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="C125">
-        <v>0.66800000000000004</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -4448,7 +4448,7 @@
         <v>75</v>
       </c>
       <c r="C126">
-        <v>0.66600000000000004</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -4462,7 +4462,7 @@
         <v>50</v>
       </c>
       <c r="C127">
-        <v>0.70399999999999996</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -4476,7 +4476,7 @@
         <v>100</v>
       </c>
       <c r="C128">
-        <v>0.64200000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
@@ -4490,7 +4490,7 @@
         <v>75</v>
       </c>
       <c r="C129">
-        <v>0.70299999999999996</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -4504,7 +4504,7 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>0.71099999999999997</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D130" t="s">
         <v>80</v>
@@ -4518,7 +4518,7 @@
         <v>100</v>
       </c>
       <c r="C131">
-        <v>0.66100000000000003</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
@@ -4532,7 +4532,7 @@
         <v>75</v>
       </c>
       <c r="C132">
-        <v>0.67300000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D132" t="s">
         <v>80</v>
@@ -4546,7 +4546,7 @@
         <v>50</v>
       </c>
       <c r="C133">
-        <v>0.69799999999999995</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="D133" t="s">
         <v>80</v>
@@ -4560,7 +4560,7 @@
         <v>100</v>
       </c>
       <c r="C134">
-        <v>0.67100000000000004</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D134" t="s">
         <v>80</v>
@@ -4574,7 +4574,7 @@
         <v>75</v>
       </c>
       <c r="C135">
-        <v>0.67500000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="D135" t="s">
         <v>80</v>
@@ -4588,7 +4588,7 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>0.71299999999999997</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -4602,7 +4602,7 @@
         <v>100</v>
       </c>
       <c r="C137">
-        <v>0.64100000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D137" t="s">
         <v>80</v>
@@ -4616,7 +4616,7 @@
         <v>75</v>
       </c>
       <c r="C138">
-        <v>0.64300000000000002</v>
+        <v>0.59</v>
       </c>
       <c r="D138" t="s">
         <v>80</v>
@@ -4630,7 +4630,7 @@
         <v>50</v>
       </c>
       <c r="C139">
-        <v>0.624</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D139" t="s">
         <v>80</v>
@@ -4644,7 +4644,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>0.64400000000000002</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D140" t="s">
         <v>80</v>
@@ -4658,7 +4658,7 @@
         <v>75</v>
       </c>
       <c r="C141">
-        <v>0.64</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D141" t="s">
         <v>80</v>
@@ -4672,7 +4672,7 @@
         <v>50</v>
       </c>
       <c r="C142">
-        <v>0.628</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D142" t="s">
         <v>80</v>
@@ -4686,7 +4686,7 @@
         <v>100</v>
       </c>
       <c r="C143">
-        <v>0.622</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D143" t="s">
         <v>80</v>
@@ -4700,7 +4700,7 @@
         <v>75</v>
       </c>
       <c r="C144">
-        <v>0.626</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D144" t="s">
         <v>80</v>
@@ -4714,7 +4714,7 @@
         <v>50</v>
       </c>
       <c r="C145">
-        <v>0.64100000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D145" t="s">
         <v>80</v>
@@ -4728,7 +4728,7 @@
         <v>100</v>
       </c>
       <c r="C146">
-        <v>0.64900000000000002</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D146" t="s">
         <v>80</v>
@@ -4742,7 +4742,7 @@
         <v>75</v>
       </c>
       <c r="C147">
-        <v>0.63900000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D147" t="s">
         <v>80</v>
@@ -4756,7 +4756,7 @@
         <v>50</v>
       </c>
       <c r="C148">
-        <v>0.64800000000000002</v>
+        <v>0.61</v>
       </c>
       <c r="D148" t="s">
         <v>80</v>
@@ -4770,7 +4770,7 @@
         <v>100</v>
       </c>
       <c r="C149">
-        <v>0.64500000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D149" t="s">
         <v>80</v>
@@ -4784,7 +4784,7 @@
         <v>75</v>
       </c>
       <c r="C150">
-        <v>0.65200000000000002</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D150" t="s">
         <v>80</v>
@@ -4798,7 +4798,7 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>0.63400000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D151" t="s">
         <v>80</v>
@@ -4812,7 +4812,7 @@
         <v>100</v>
       </c>
       <c r="C152">
-        <v>0.64700000000000002</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D152" t="s">
         <v>80</v>
@@ -4826,7 +4826,7 @@
         <v>75</v>
       </c>
       <c r="C153">
-        <v>0.66900000000000004</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -4840,7 +4840,7 @@
         <v>50</v>
       </c>
       <c r="C154">
-        <v>0.68799999999999994</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D154" t="s">
         <v>80</v>
@@ -4854,7 +4854,7 @@
         <v>100</v>
       </c>
       <c r="C155">
-        <v>0.64300000000000002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D155" t="s">
         <v>80</v>
@@ -4868,7 +4868,7 @@
         <v>75</v>
       </c>
       <c r="C156">
-        <v>0.67</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D156" t="s">
         <v>80</v>
@@ -4882,7 +4882,7 @@
         <v>50</v>
       </c>
       <c r="C157">
-        <v>0.68200000000000005</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D157" t="s">
         <v>80</v>
@@ -4896,7 +4896,7 @@
         <v>100</v>
       </c>
       <c r="C158">
-        <v>0.63600000000000001</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4910,7 +4910,7 @@
         <v>75</v>
       </c>
       <c r="C159">
-        <v>0.67500000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D159" t="s">
         <v>80</v>
@@ -4924,7 +4924,7 @@
         <v>50</v>
       </c>
       <c r="C160">
-        <v>0.66800000000000004</v>
+        <v>0.627</v>
       </c>
       <c r="D160" t="s">
         <v>80</v>
@@ -4938,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="C161">
-        <v>0.65300000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D161" t="s">
         <v>80</v>
@@ -4952,7 +4952,7 @@
         <v>75</v>
       </c>
       <c r="C162">
-        <v>0.67200000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="D162" t="s">
         <v>80</v>
@@ -4966,7 +4966,7 @@
         <v>50</v>
       </c>
       <c r="C163">
-        <v>0.68899999999999995</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D163" t="s">
         <v>80</v>
@@ -4980,7 +4980,7 @@
         <v>100</v>
       </c>
       <c r="C164">
-        <v>0.65500000000000003</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D164" t="s">
         <v>80</v>
@@ -4994,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="C165">
-        <v>0.65800000000000003</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D165" t="s">
         <v>80</v>
@@ -5008,7 +5008,7 @@
         <v>50</v>
       </c>
       <c r="C166">
-        <v>0.68700000000000006</v>
+        <v>0.61</v>
       </c>
       <c r="D166" t="s">
         <v>80</v>
@@ -5022,7 +5022,7 @@
         <v>100</v>
       </c>
       <c r="C167">
-        <v>0.65500000000000003</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D167" t="s">
         <v>80</v>
@@ -5036,7 +5036,7 @@
         <v>75</v>
       </c>
       <c r="C168">
-        <v>0.67</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D168" t="s">
         <v>80</v>
@@ -5050,7 +5050,7 @@
         <v>50</v>
       </c>
       <c r="C169">
-        <v>0.69099999999999995</v>
+        <v>0.65</v>
       </c>
       <c r="D169" t="s">
         <v>80</v>
@@ -5064,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="C170">
-        <v>0.66</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D170" t="s">
         <v>80</v>
@@ -5078,7 +5078,7 @@
         <v>75</v>
       </c>
       <c r="C171">
-        <v>0.67100000000000004</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D171" t="s">
         <v>80</v>
@@ -5092,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="C172">
-        <v>0.70899999999999996</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D172" t="s">
         <v>80</v>
@@ -5106,7 +5106,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>0.65100000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D173" t="s">
         <v>80</v>
@@ -5120,7 +5120,7 @@
         <v>75</v>
       </c>
       <c r="C174">
-        <v>0.66100000000000003</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D174" t="s">
         <v>80</v>
@@ -5134,7 +5134,7 @@
         <v>50</v>
       </c>
       <c r="C175">
-        <v>0.69799999999999995</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -5148,7 +5148,7 @@
         <v>100</v>
       </c>
       <c r="C176">
-        <v>0.66300000000000003</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -5162,7 +5162,7 @@
         <v>75</v>
       </c>
       <c r="C177">
-        <v>0.67400000000000004</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -5176,7 +5176,7 @@
         <v>50</v>
       </c>
       <c r="C178">
-        <v>0.70499999999999996</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -5190,7 +5190,7 @@
         <v>100</v>
       </c>
       <c r="C179">
-        <v>0.629</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -5204,7 +5204,7 @@
         <v>75</v>
       </c>
       <c r="C180">
-        <v>0.65</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -5218,7 +5218,7 @@
         <v>50</v>
       </c>
       <c r="C181">
-        <v>0.7</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D181" t="s">
         <v>80</v>
@@ -5232,7 +5232,7 @@
         <v>100</v>
       </c>
       <c r="C182">
-        <v>0.61</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D182" t="s">
         <v>80</v>
@@ -5246,7 +5246,7 @@
         <v>75</v>
       </c>
       <c r="C183">
-        <v>0.63300000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D183" t="s">
         <v>80</v>
@@ -5260,7 +5260,7 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>0.64700000000000002</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="D184" t="s">
         <v>80</v>
@@ -5274,7 +5274,7 @@
         <v>100</v>
       </c>
       <c r="C185">
-        <v>0.61699999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D185" t="s">
         <v>80</v>
@@ -5288,7 +5288,7 @@
         <v>75</v>
       </c>
       <c r="C186">
-        <v>0.61299999999999999</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D186" t="s">
         <v>80</v>
@@ -5302,7 +5302,7 @@
         <v>50</v>
       </c>
       <c r="C187">
-        <v>0.63600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D187" t="s">
         <v>80</v>
@@ -5316,7 +5316,7 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>0.64800000000000002</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D188" t="s">
         <v>80</v>
@@ -5330,7 +5330,7 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>0.63200000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D189" t="s">
         <v>80</v>
@@ -5344,7 +5344,7 @@
         <v>50</v>
       </c>
       <c r="C190">
-        <v>0.623</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="D190" t="s">
         <v>80</v>
@@ -5358,7 +5358,7 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>0.63700000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -5372,7 +5372,7 @@
         <v>75</v>
       </c>
       <c r="C192">
-        <v>0.64600000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D192" t="s">
         <v>80</v>
@@ -5386,7 +5386,7 @@
         <v>50</v>
       </c>
       <c r="C193">
-        <v>0.64100000000000001</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D193" t="s">
         <v>80</v>
@@ -5400,7 +5400,7 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>0.623</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -5414,7 +5414,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>0.63</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="D195" t="s">
         <v>80</v>
@@ -5428,7 +5428,7 @@
         <v>50</v>
       </c>
       <c r="C196">
-        <v>0.65</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D196" t="s">
         <v>80</v>
@@ -5442,7 +5442,7 @@
         <v>100</v>
       </c>
       <c r="C197">
-        <v>0.627</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D197" t="s">
         <v>80</v>
@@ -5456,7 +5456,7 @@
         <v>75</v>
       </c>
       <c r="C198">
-        <v>0.65200000000000002</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
@@ -5470,7 +5470,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <v>0.64400000000000002</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
@@ -5484,7 +5484,7 @@
         <v>100</v>
       </c>
       <c r="C200">
-        <v>0.61499999999999999</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
@@ -5498,7 +5498,7 @@
         <v>75</v>
       </c>
       <c r="C201">
-        <v>0.66700000000000004</v>
+        <v>0.626</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
@@ -5512,7 +5512,7 @@
         <v>50</v>
       </c>
       <c r="C202">
-        <v>0.66900000000000004</v>
+        <v>0.623</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
@@ -5526,7 +5526,7 @@
         <v>100</v>
       </c>
       <c r="C203">
-        <v>0.622</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D203" t="s">
         <v>80</v>
@@ -5540,7 +5540,7 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>0.65800000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
@@ -5554,7 +5554,7 @@
         <v>50</v>
       </c>
       <c r="C205">
-        <v>0.64400000000000002</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D205" t="s">
         <v>80</v>
@@ -5568,7 +5568,7 @@
         <v>100</v>
       </c>
       <c r="C206">
-        <v>0.57799999999999996</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
@@ -5582,7 +5582,7 @@
         <v>75</v>
       </c>
       <c r="C207">
-        <v>0.64700000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D207" t="s">
         <v>80</v>
@@ -5596,7 +5596,7 @@
         <v>50</v>
       </c>
       <c r="C208">
-        <v>0.65300000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="D208" t="s">
         <v>80</v>
@@ -5610,7 +5610,7 @@
         <v>100</v>
       </c>
       <c r="C209">
-        <v>0.61599999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D209" t="s">
         <v>80</v>
@@ -5624,7 +5624,7 @@
         <v>75</v>
       </c>
       <c r="C210">
-        <v>0.66200000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D210" t="s">
         <v>80</v>
@@ -5638,7 +5638,7 @@
         <v>50</v>
       </c>
       <c r="C211">
-        <v>0.66700000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="D211" t="s">
         <v>80</v>
@@ -5652,7 +5652,7 @@
         <v>100</v>
       </c>
       <c r="C212">
-        <v>0.46600000000000003</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D212" t="s">
         <v>80</v>
@@ -5666,7 +5666,7 @@
         <v>75</v>
       </c>
       <c r="C213">
-        <v>0.52100000000000002</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
@@ -5680,7 +5680,7 @@
         <v>50</v>
       </c>
       <c r="C214">
-        <v>0.53300000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -5694,7 +5694,7 @@
         <v>100</v>
       </c>
       <c r="C215">
-        <v>0.53600000000000003</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D215" t="s">
         <v>80</v>
@@ -5708,7 +5708,7 @@
         <v>75</v>
       </c>
       <c r="C216">
-        <v>0.51200000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D216" t="s">
         <v>80</v>
@@ -5722,7 +5722,7 @@
         <v>50</v>
       </c>
       <c r="C217">
-        <v>0.52600000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D217" t="s">
         <v>80</v>
@@ -5736,7 +5736,7 @@
         <v>100</v>
       </c>
       <c r="C218">
-        <v>0.501</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D218" t="s">
         <v>80</v>
@@ -5750,7 +5750,7 @@
         <v>75</v>
       </c>
       <c r="C219">
-        <v>0.53400000000000003</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="D219" t="s">
         <v>80</v>
@@ -5764,7 +5764,7 @@
         <v>50</v>
       </c>
       <c r="C220">
-        <v>0.53300000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D220" t="s">
         <v>80</v>
@@ -5778,7 +5778,7 @@
         <v>100</v>
       </c>
       <c r="C221">
-        <v>0.51700000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D221" t="s">
         <v>80</v>
@@ -5792,7 +5792,7 @@
         <v>75</v>
       </c>
       <c r="C222">
-        <v>0.55000000000000004</v>
+        <v>0.503</v>
       </c>
       <c r="D222" t="s">
         <v>80</v>
@@ -5806,7 +5806,7 @@
         <v>50</v>
       </c>
       <c r="C223">
-        <v>0.53700000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="D223" t="s">
         <v>80</v>
@@ -5820,7 +5820,7 @@
         <v>100</v>
       </c>
       <c r="C224">
-        <v>0.51</v>
+        <v>0.499</v>
       </c>
       <c r="D224" t="s">
         <v>80</v>
@@ -5834,7 +5834,7 @@
         <v>75</v>
       </c>
       <c r="C225">
-        <v>0.47699999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="D225" t="s">
         <v>80</v>
@@ -5862,7 +5862,7 @@
         <v>100</v>
       </c>
       <c r="C227">
-        <v>0.59499999999999997</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D227" t="s">
         <v>80</v>
@@ -5876,7 +5876,7 @@
         <v>75</v>
       </c>
       <c r="C228">
-        <v>0.65700000000000003</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D228" t="s">
         <v>80</v>
@@ -5890,7 +5890,7 @@
         <v>50</v>
       </c>
       <c r="C229">
-        <v>0.60299999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D229" t="s">
         <v>80</v>
@@ -5904,7 +5904,7 @@
         <v>100</v>
       </c>
       <c r="C230">
-        <v>0.60899999999999999</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D230" t="s">
         <v>80</v>
@@ -5918,7 +5918,7 @@
         <v>75</v>
       </c>
       <c r="C231">
-        <v>0.66400000000000003</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D231" t="s">
         <v>80</v>
@@ -5932,7 +5932,7 @@
         <v>50</v>
       </c>
       <c r="C232">
-        <v>0.61599999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D232" t="s">
         <v>80</v>
@@ -5946,7 +5946,7 @@
         <v>100</v>
       </c>
       <c r="C233">
-        <v>0.61499999999999999</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D233" t="s">
         <v>80</v>
@@ -5960,7 +5960,7 @@
         <v>75</v>
       </c>
       <c r="C234">
-        <v>0.66200000000000003</v>
+        <v>0.628</v>
       </c>
       <c r="D234" t="s">
         <v>80</v>
@@ -5974,7 +5974,7 @@
         <v>50</v>
       </c>
       <c r="C235">
-        <v>0.621</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D235" t="s">
         <v>80</v>
@@ -5988,7 +5988,7 @@
         <v>100</v>
       </c>
       <c r="C236">
-        <v>0.59599999999999997</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="D236" t="s">
         <v>80</v>
@@ -6002,7 +6002,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>0.67100000000000004</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D237" t="s">
         <v>80</v>
@@ -6016,7 +6016,7 @@
         <v>50</v>
       </c>
       <c r="C238">
-        <v>0.625</v>
+        <v>0.626</v>
       </c>
       <c r="D238" t="s">
         <v>80</v>
@@ -6030,7 +6030,7 @@
         <v>100</v>
       </c>
       <c r="C239">
-        <v>0.621</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D239" t="s">
         <v>80</v>
@@ -6044,7 +6044,7 @@
         <v>75</v>
       </c>
       <c r="C240">
-        <v>0.66400000000000003</v>
+        <v>0.621</v>
       </c>
       <c r="D240" t="s">
         <v>80</v>
@@ -6058,7 +6058,7 @@
         <v>50</v>
       </c>
       <c r="C241">
-        <v>0.628</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D241" t="s">
         <v>80</v>
@@ -6072,7 +6072,7 @@
         <v>100</v>
       </c>
       <c r="C242">
-        <v>0.498</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D242" t="s">
         <v>80</v>
@@ -6086,7 +6086,7 @@
         <v>75</v>
       </c>
       <c r="C243">
-        <v>0.51600000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D243" t="s">
         <v>80</v>
@@ -6100,7 +6100,7 @@
         <v>50</v>
       </c>
       <c r="C244">
-        <v>0.54200000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D244" t="s">
         <v>80</v>
@@ -6114,7 +6114,7 @@
         <v>100</v>
       </c>
       <c r="C245">
-        <v>0.54700000000000004</v>
+        <v>0.497</v>
       </c>
       <c r="D245" t="s">
         <v>80</v>
@@ -6128,7 +6128,7 @@
         <v>75</v>
       </c>
       <c r="C246">
-        <v>0.52800000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="D246" t="s">
         <v>80</v>
@@ -6142,7 +6142,7 @@
         <v>50</v>
       </c>
       <c r="C247">
-        <v>0.57199999999999995</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D247" t="s">
         <v>80</v>
@@ -6156,7 +6156,7 @@
         <v>100</v>
       </c>
       <c r="C248">
-        <v>0.503</v>
+        <v>0.504</v>
       </c>
       <c r="D248" t="s">
         <v>80</v>
@@ -6170,7 +6170,7 @@
         <v>75</v>
       </c>
       <c r="C249">
-        <v>0.53700000000000003</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D249" t="s">
         <v>80</v>
@@ -6184,7 +6184,7 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D250" t="s">
         <v>80</v>
@@ -6198,7 +6198,7 @@
         <v>100</v>
       </c>
       <c r="C251">
-        <v>0.51500000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="D251" t="s">
         <v>80</v>
@@ -6212,7 +6212,7 @@
         <v>75</v>
       </c>
       <c r="C252">
-        <v>0.51700000000000002</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D252" t="s">
         <v>80</v>
@@ -6226,7 +6226,7 @@
         <v>50</v>
       </c>
       <c r="C253">
-        <v>0.59</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D253" t="s">
         <v>80</v>
@@ -6240,7 +6240,7 @@
         <v>100</v>
       </c>
       <c r="C254">
-        <v>0.504</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D254" t="s">
         <v>80</v>
@@ -6254,7 +6254,7 @@
         <v>75</v>
       </c>
       <c r="C255">
-        <v>0.53200000000000003</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D255" t="s">
         <v>80</v>
@@ -6268,7 +6268,7 @@
         <v>50</v>
       </c>
       <c r="C256">
-        <v>0.54200000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D256" t="s">
         <v>80</v>
@@ -6282,7 +6282,7 @@
         <v>100</v>
       </c>
       <c r="C257">
-        <v>0.58199999999999996</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D257" t="s">
         <v>80</v>
@@ -6296,7 +6296,7 @@
         <v>75</v>
       </c>
       <c r="C258">
-        <v>0.59499999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="D258" t="s">
         <v>80</v>
@@ -6310,7 +6310,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.60699999999999998</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D259" t="s">
         <v>80</v>
@@ -6324,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="C260">
-        <v>0.57099999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="D260" t="s">
         <v>80</v>
@@ -6338,7 +6338,7 @@
         <v>75</v>
       </c>
       <c r="C261">
-        <v>0.59699999999999998</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D261" t="s">
         <v>80</v>
@@ -6352,7 +6352,7 @@
         <v>50</v>
       </c>
       <c r="C262">
-        <v>0.61</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D262" t="s">
         <v>80</v>
@@ -6366,7 +6366,7 @@
         <v>100</v>
       </c>
       <c r="C263">
-        <v>0.57399999999999995</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D263" t="s">
         <v>80</v>
@@ -6380,7 +6380,7 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>0.59599999999999997</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D264" t="s">
         <v>80</v>
@@ -6394,7 +6394,7 @@
         <v>50</v>
       </c>
       <c r="C265">
-        <v>0.60699999999999998</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D265" t="s">
         <v>80</v>
@@ -6408,7 +6408,7 @@
         <v>100</v>
       </c>
       <c r="C266">
-        <v>0.55300000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D266" t="s">
         <v>80</v>
@@ -6422,7 +6422,7 @@
         <v>75</v>
       </c>
       <c r="C267">
-        <v>0.57799999999999996</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D267" t="s">
         <v>80</v>
@@ -6436,7 +6436,7 @@
         <v>50</v>
       </c>
       <c r="C268">
-        <v>0.626</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D268" t="s">
         <v>80</v>
@@ -6450,7 +6450,7 @@
         <v>100</v>
       </c>
       <c r="C269">
-        <v>0.56399999999999995</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D269" t="s">
         <v>80</v>
@@ -6464,7 +6464,7 @@
         <v>75</v>
       </c>
       <c r="C270">
-        <v>0.6</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D270" t="s">
         <v>80</v>
@@ -6478,7 +6478,7 @@
         <v>50</v>
       </c>
       <c r="C271">
-        <v>0.624</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="D271" t="s">
         <v>80</v>
@@ -6492,7 +6492,7 @@
         <v>100</v>
       </c>
       <c r="C272">
-        <v>0.60499999999999998</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D272" t="s">
         <v>80</v>
@@ -6506,7 +6506,7 @@
         <v>75</v>
       </c>
       <c r="C273">
-        <v>0.60299999999999998</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D273" t="s">
         <v>80</v>
@@ -6520,7 +6520,7 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>0.61499999999999999</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D274" t="s">
         <v>80</v>
@@ -6534,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="C275">
-        <v>0.61</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D275" t="s">
         <v>80</v>
@@ -6548,7 +6548,7 @@
         <v>75</v>
       </c>
       <c r="C276">
-        <v>0.61699999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="D276" t="s">
         <v>80</v>
@@ -6562,7 +6562,7 @@
         <v>50</v>
       </c>
       <c r="C277">
-        <v>0.57999999999999996</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D277" t="s">
         <v>80</v>
@@ -6576,7 +6576,7 @@
         <v>100</v>
       </c>
       <c r="C278">
-        <v>0.61</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D278" t="s">
         <v>80</v>
@@ -6590,7 +6590,7 @@
         <v>75</v>
       </c>
       <c r="C279">
-        <v>0.60799999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="D279" t="s">
         <v>80</v>
@@ -6604,7 +6604,7 @@
         <v>50</v>
       </c>
       <c r="C280">
-        <v>0.6</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D280" t="s">
         <v>80</v>
@@ -6618,7 +6618,7 @@
         <v>100</v>
       </c>
       <c r="C281">
-        <v>0.59899999999999998</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D281" t="s">
         <v>80</v>
@@ -6632,7 +6632,7 @@
         <v>75</v>
       </c>
       <c r="C282">
-        <v>0.59499999999999997</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D282" t="s">
         <v>80</v>
@@ -6646,7 +6646,7 @@
         <v>50</v>
       </c>
       <c r="C283">
-        <v>0.58499999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D283" t="s">
         <v>80</v>
@@ -6660,7 +6660,7 @@
         <v>100</v>
       </c>
       <c r="C284">
-        <v>0.60299999999999998</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D284" t="s">
         <v>80</v>
@@ -6674,7 +6674,7 @@
         <v>75</v>
       </c>
       <c r="C285">
-        <v>0.63100000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D285" t="s">
         <v>80</v>
@@ -6688,7 +6688,7 @@
         <v>50</v>
       </c>
       <c r="C286">
-        <v>0.58599999999999997</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D286" t="s">
         <v>80</v>
@@ -6702,7 +6702,7 @@
         <v>100</v>
       </c>
       <c r="C287">
-        <v>0.67900000000000005</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D287" t="s">
         <v>80</v>
@@ -6716,7 +6716,7 @@
         <v>75</v>
       </c>
       <c r="C288">
-        <v>0.69</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="D288" t="s">
         <v>80</v>
@@ -6730,7 +6730,7 @@
         <v>50</v>
       </c>
       <c r="C289">
-        <v>0.69799999999999995</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D289" t="s">
         <v>80</v>
@@ -6744,7 +6744,7 @@
         <v>100</v>
       </c>
       <c r="C290">
-        <v>0.67600000000000005</v>
+        <v>0.626</v>
       </c>
       <c r="D290" t="s">
         <v>80</v>
@@ -6758,7 +6758,7 @@
         <v>75</v>
       </c>
       <c r="C291">
-        <v>0.69</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D291" t="s">
         <v>80</v>
@@ -6772,7 +6772,7 @@
         <v>50</v>
       </c>
       <c r="C292">
-        <v>0.68700000000000006</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D292" t="s">
         <v>80</v>
@@ -6786,7 +6786,7 @@
         <v>100</v>
       </c>
       <c r="C293">
-        <v>0.67800000000000005</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D293" t="s">
         <v>80</v>
@@ -6800,7 +6800,7 @@
         <v>75</v>
       </c>
       <c r="C294">
-        <v>0.69499999999999995</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D294" t="s">
         <v>80</v>
@@ -6814,7 +6814,7 @@
         <v>50</v>
       </c>
       <c r="C295">
-        <v>0.68500000000000005</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="D295" t="s">
         <v>80</v>
@@ -6828,7 +6828,7 @@
         <v>100</v>
       </c>
       <c r="C296">
-        <v>0.65400000000000003</v>
+        <v>0.629</v>
       </c>
       <c r="D296" t="s">
         <v>80</v>
@@ -6842,7 +6842,7 @@
         <v>75</v>
       </c>
       <c r="C297">
-        <v>0.67900000000000005</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D297" t="s">
         <v>80</v>
@@ -6856,7 +6856,7 @@
         <v>50</v>
       </c>
       <c r="C298">
-        <v>0.69099999999999995</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D298" t="s">
         <v>80</v>
@@ -6870,7 +6870,7 @@
         <v>100</v>
       </c>
       <c r="C299">
-        <v>0.67800000000000005</v>
+        <v>0.627</v>
       </c>
       <c r="D299" t="s">
         <v>80</v>
@@ -6884,7 +6884,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>0.69099999999999995</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D300" t="s">
         <v>80</v>
@@ -6898,7 +6898,7 @@
         <v>50</v>
       </c>
       <c r="C301">
-        <v>0.7</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="D301" t="s">
         <v>80</v>
@@ -6912,7 +6912,7 @@
         <v>100</v>
       </c>
       <c r="C302">
-        <v>0.68700000000000006</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D302" t="s">
         <v>80</v>
@@ -6926,7 +6926,7 @@
         <v>75</v>
       </c>
       <c r="C303">
-        <v>0.69</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="D303" t="s">
         <v>80</v>
@@ -6940,7 +6940,7 @@
         <v>50</v>
       </c>
       <c r="C304">
-        <v>0.71299999999999997</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D304" t="s">
         <v>80</v>
@@ -6954,7 +6954,7 @@
         <v>100</v>
       </c>
       <c r="C305">
-        <v>0.67200000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D305" t="s">
         <v>80</v>
@@ -6968,7 +6968,7 @@
         <v>75</v>
       </c>
       <c r="C306">
-        <v>0.69799999999999995</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="D306" t="s">
         <v>80</v>
@@ -6982,7 +6982,7 @@
         <v>50</v>
       </c>
       <c r="C307">
-        <v>0.73</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="D307" t="s">
         <v>80</v>
@@ -6996,7 +6996,7 @@
         <v>100</v>
       </c>
       <c r="C308">
-        <v>0.69199999999999995</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D308" t="s">
         <v>80</v>
@@ -7010,7 +7010,7 @@
         <v>75</v>
       </c>
       <c r="C309">
-        <v>0.69399999999999995</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D309" t="s">
         <v>80</v>
@@ -7024,7 +7024,7 @@
         <v>50</v>
       </c>
       <c r="C310">
-        <v>0.71199999999999997</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D310" t="s">
         <v>80</v>
@@ -7038,7 +7038,7 @@
         <v>100</v>
       </c>
       <c r="C311">
-        <v>0.68100000000000005</v>
+        <v>0.65</v>
       </c>
       <c r="D311" t="s">
         <v>80</v>
@@ -7052,7 +7052,7 @@
         <v>75</v>
       </c>
       <c r="C312">
-        <v>0.69699999999999995</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D312" t="s">
         <v>80</v>
@@ -7066,7 +7066,7 @@
         <v>50</v>
       </c>
       <c r="C313">
-        <v>0.71099999999999997</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="D313" t="s">
         <v>80</v>
@@ -7080,7 +7080,7 @@
         <v>100</v>
       </c>
       <c r="C314">
-        <v>0.7</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D314" t="s">
         <v>80</v>
@@ -7094,7 +7094,7 @@
         <v>75</v>
       </c>
       <c r="C315">
-        <v>0.71399999999999997</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="D315" t="s">
         <v>80</v>
@@ -7108,7 +7108,7 @@
         <v>50</v>
       </c>
       <c r="C316">
-        <v>0.70699999999999996</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D316" t="s">
         <v>80</v>
@@ -7122,7 +7122,7 @@
         <v>100</v>
       </c>
       <c r="C317">
-        <v>0.66500000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="D317" t="s">
         <v>80</v>
@@ -7136,7 +7136,7 @@
         <v>75</v>
       </c>
       <c r="C318">
-        <v>0.68300000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="D318" t="s">
         <v>80</v>
@@ -7150,7 +7150,7 @@
         <v>50</v>
       </c>
       <c r="C319">
-        <v>0.69899999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="D319" t="s">
         <v>80</v>
@@ -7164,7 +7164,7 @@
         <v>100</v>
       </c>
       <c r="C320">
-        <v>0.68</v>
+        <v>0.629</v>
       </c>
       <c r="D320" t="s">
         <v>80</v>
@@ -7178,7 +7178,7 @@
         <v>75</v>
       </c>
       <c r="C321">
-        <v>0.67200000000000004</v>
+        <v>0.624</v>
       </c>
       <c r="D321" t="s">
         <v>80</v>
@@ -7192,7 +7192,7 @@
         <v>50</v>
       </c>
       <c r="C322">
-        <v>0.69599999999999995</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D322" t="s">
         <v>80</v>
@@ -7206,7 +7206,7 @@
         <v>100</v>
       </c>
       <c r="C323">
-        <v>0.68100000000000005</v>
+        <v>0.628</v>
       </c>
       <c r="D323" t="s">
         <v>80</v>
@@ -7220,7 +7220,7 @@
         <v>75</v>
       </c>
       <c r="C324">
-        <v>0.67500000000000004</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D324" t="s">
         <v>80</v>
@@ -7234,7 +7234,7 @@
         <v>50</v>
       </c>
       <c r="C325">
-        <v>0.69399999999999995</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D325" t="s">
         <v>80</v>
@@ -7248,7 +7248,7 @@
         <v>100</v>
       </c>
       <c r="C326">
-        <v>0.68600000000000005</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D326" t="s">
         <v>80</v>
@@ -7262,7 +7262,7 @@
         <v>75</v>
       </c>
       <c r="C327">
-        <v>0.69199999999999995</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D327" t="s">
         <v>80</v>
@@ -7276,7 +7276,7 @@
         <v>50</v>
       </c>
       <c r="C328">
-        <v>0.69399999999999995</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="D328" t="s">
         <v>80</v>
@@ -7290,7 +7290,7 @@
         <v>100</v>
       </c>
       <c r="C329">
-        <v>0.68100000000000005</v>
+        <v>0.64</v>
       </c>
       <c r="D329" t="s">
         <v>80</v>
@@ -7304,7 +7304,7 @@
         <v>75</v>
       </c>
       <c r="C330">
-        <v>0.68</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D330" t="s">
         <v>80</v>
@@ -7318,7 +7318,7 @@
         <v>50</v>
       </c>
       <c r="C331">
-        <v>0.70499999999999996</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="D331" t="s">
         <v>80</v>
